--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -7,7 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tech stack" sheetId="2" r:id="rId1"/>
+    <sheet name="blueprint" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="DB" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,40 +22,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>메뉴 id, 메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 id, 회원 이름, 현재 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지역 id, 지역 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,7 +72,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">front-end </t>
+    <t>위 아래 같은 DB에 써야하나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give ordered movement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakao map link with DB to give client location checked map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakao map embed or google map??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google map take user's geographic information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(250,87,87)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this site only for joined user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we show top 5 daily menu and last month's same day top5 menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 id, 회원 이름, 회원 나이, 회원 성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">divide by sex, age, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranking page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB : server info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB : client info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userdo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 id, 가게 이름, 메뉴 id, 지역 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do id, 가게 id, 지역 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴를 누르면 google map에서 메뉴 이름을 검색할 수 있도록 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 삭제 할 수 있게한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon id, icon url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db에서 메뉴 아이콘을 가져와야 할 듯 하다 floor(rand(),0) 함수 사용하여 참신하게 바뀌는 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션??? 사다리타기 가능하면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 유저의 나이대/성별 top5 메뉴 상단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초~2초 마다 메뉴 사진이 슬라이드 형식으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무조건 로그인 하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 오늘뭐먹지 로고 클릭시 로그인 페이지 등장 아래에서 위?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 형식 현대적이고 부드럽게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 형식 현대적이고 부드럽게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phamplet page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 할인권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 할인권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지를 어떻게 해야 깔끔하게 할지 ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지를 어떻게 해야 깔끔하게 할지 ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medibang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +304,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +317,24 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -217,21 +441,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,6 +459,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,6 +498,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="오른쪽 화살표 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="3209925"/>
+          <a:ext cx="676275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,137 +822,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A3:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="25.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="12" customWidth="1"/>
-    <col min="4" max="5" width="9" style="12"/>
-    <col min="11" max="11" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="11.25" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C17" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <v>2</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="5" t="s">
+      <c r="H19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="H20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C9:S20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="R19" s="14">
+        <v>44960</v>
+      </c>
+      <c r="S19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:S22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="8">
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="8">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="8">
-        <v>3</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="8">
-        <v>4</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2"/>
+      <c r="R19" s="14">
+        <v>44960</v>
+      </c>
+      <c r="S19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="S20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="6"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:K4"/>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
     <sheet name="blueprint" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="idea" sheetId="4" r:id="rId3"/>
     <sheet name="DB" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>메뉴 id, 메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>medibang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강제성을 부여하기 위해 추가되어야 할 것?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식습관 정보 + 건강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,15 +472,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -481,6 +484,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,22 +836,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" style="8" customWidth="1"/>
     <col min="2" max="2" width="12" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -850,7 +862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -861,7 +873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -872,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -883,7 +895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -891,32 +903,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>68</v>
       </c>
@@ -935,196 +947,196 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="3" width="11.25" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="9" style="12"/>
+    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="16"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="16" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C9" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="15">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="16" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="17" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C15" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="17" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C16" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C17" s="17" t="s">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C17" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="15">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="17" t="s">
+      <c r="R19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="S19" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="16" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="F20" s="15"/>
+      <c r="H20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="S20" s="17" t="s">
+      <c r="S20" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="16" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C22" s="16" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="15" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="15" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1138,40 +1150,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:S20"/>
+  <dimension ref="C9:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="R19" s="14">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="11">
         <v>44960</v>
       </c>
       <c r="S19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
       <c r="S20" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1188,21 +1222,21 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="10" t="s">
+    <row r="3" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C5" s="5">
         <v>1</v>
       </c>
@@ -1213,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C6" s="5">
         <v>2</v>
       </c>
@@ -1224,7 +1258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>3</v>
       </c>
@@ -1235,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C8" s="5">
         <v>4</v>
       </c>
@@ -1246,7 +1280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
         <v>66</v>
       </c>
@@ -1257,29 +1291,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
         <v>60</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C15" s="5">
         <v>1</v>
       </c>
@@ -1290,28 +1324,28 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="2"/>
-      <c r="R19" s="14">
+      <c r="R19" s="11">
         <v>44960</v>
       </c>
       <c r="S19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="2"/>
@@ -1319,12 +1353,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>

--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>메뉴 id, 메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1초~2초 마다 메뉴 사진이 슬라이드 형식으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무조건 로그인 하도록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,6 +305,14 @@
   </si>
   <si>
     <t>식습관 정보 + 건강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this project's main point is give example for food not recommend good restaurant and additionaly give health point especially calorie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3초 마다 메뉴 사진이 슬라이드 형식으로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +934,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -943,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -996,7 +1000,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
@@ -1018,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>21</v>
@@ -1034,17 +1038,17 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C15" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C16" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C17" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
@@ -1067,10 +1071,10 @@
         <v>47</v>
       </c>
       <c r="R19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
@@ -1085,7 +1089,7 @@
         <v>48</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
@@ -1093,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="N21" s="14" t="s">
         <v>51</v>
@@ -1150,38 +1154,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:S22"/>
+  <dimension ref="C9:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="9" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R19" s="11">
         <v>44960</v>
       </c>
       <c r="S19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.4">
@@ -1189,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.4">
@@ -1200,12 +1204,17 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1291,7 @@
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>49</v>
@@ -1302,7 +1311,7 @@
     </row>
     <row r="13" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -1331,7 +1340,7 @@
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.4">
@@ -1342,7 +1351,7 @@
         <v>44960</v>
       </c>
       <c r="S19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.4">
@@ -1350,7 +1359,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="2"/>
       <c r="S20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.4">

--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
@@ -844,18 +844,18 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="8" customWidth="1"/>
     <col min="2" max="2" width="12" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -866,7 +866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -888,7 +888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -899,7 +899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -907,32 +907,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>67</v>
       </c>
@@ -947,19 +947,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="9" style="12"/>
-    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
@@ -967,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
@@ -975,7 +975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
@@ -986,27 +986,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>1</v>
       </c>
@@ -1031,27 +1031,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>2</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C22" s="13" t="s">
         <v>9</v>
       </c>
@@ -1111,12 +1111,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
@@ -1124,22 +1124,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>44</v>
       </c>
@@ -1160,24 +1160,24 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>1</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>2</v>
       </c>
@@ -1207,12 +1207,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>71</v>
       </c>
@@ -1225,27 +1225,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:S22"/>
+  <dimension ref="C3:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="5">
         <v>1</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>2</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>3</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>4</v>
       </c>
@@ -1289,10 +1293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="9" t="s">
-        <v>65</v>
-      </c>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
@@ -1300,29 +1301,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <v>1</v>
       </c>
@@ -1333,17 +1334,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="2"/>
@@ -1354,7 +1350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="2"/>
@@ -1362,15 +1358,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="3:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>메뉴 id, 메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rgb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +309,14 @@
   </si>
   <si>
     <t>2~3초 마다 메뉴 사진이 슬라이드 형식으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>** 생각보다 디자인은 그리 중요하지 않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give time value on entity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -904,7 +908,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -934,7 +941,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -947,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,28 +976,30 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="L4" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C7" s="13"/>
@@ -1000,7 +1009,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -1022,13 +1031,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1038,17 +1047,17 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
@@ -1062,19 +1071,19 @@
         <v>17</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="R19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
@@ -1083,13 +1092,13 @@
       </c>
       <c r="F20" s="15"/>
       <c r="H20" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
@@ -1097,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
@@ -1108,40 +1117,40 @@
         <v>9</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1164,28 +1173,28 @@
   <sheetData>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R19" s="11">
         <v>44960</v>
       </c>
       <c r="S19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.3">
@@ -1193,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.3">
@@ -1204,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
@@ -1214,7 +1223,7 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1239,12 +1248,12 @@
   <sheetData>
     <row r="3" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
@@ -1254,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -1265,10 +1274,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
@@ -1276,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -1287,18 +1296,18 @@
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1312,13 +1321,13 @@
     </row>
     <row r="13" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
@@ -1328,10 +1337,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.3">
@@ -1347,7 +1356,7 @@
         <v>44960</v>
       </c>
       <c r="S19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.3">
@@ -1355,7 +1364,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="2"/>
       <c r="S20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.3">
@@ -1370,7 +1379,7 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
     <sheet name="blueprint" sheetId="3" r:id="rId2"/>
     <sheet name="idea" sheetId="4" r:id="rId3"/>
     <sheet name="DB" sheetId="1" r:id="rId4"/>
+    <sheet name="feedback" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>메뉴 id, 메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +318,34 @@
   </si>
   <si>
     <t>give time value on entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not use unknown data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use a lot content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but also I make CRUD in project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinguish time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Google Survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1390,4 +1419,71 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
@@ -877,18 +877,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" style="8" customWidth="1"/>
     <col min="2" max="2" width="12" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -899,7 +899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -910,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -921,7 +921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -932,7 +932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -943,32 +943,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>66</v>
       </c>
@@ -987,15 +987,15 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="9" style="12"/>
-    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C4" s="14" t="s">
         <v>24</v>
       </c>
@@ -1022,29 +1022,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C9" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="12">
         <v>1</v>
       </c>
@@ -1069,27 +1069,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C15" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C16" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C17" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="12">
         <v>2</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C22" s="13" t="s">
         <v>9</v>
       </c>
@@ -1149,12 +1149,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="12" t="s">
         <v>38</v>
       </c>
@@ -1162,22 +1162,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B43" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
@@ -1198,24 +1198,24 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C9" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>67</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C20">
         <v>1</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C21">
         <v>2</v>
       </c>
@@ -1245,12 +1245,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>70</v>
       </c>
@@ -1265,29 +1265,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C4" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C5" s="5">
         <v>1</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C6" s="5">
         <v>2</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>3</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C8" s="5">
         <v>4</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1339,29 +1339,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
         <v>58</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C14" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C15" s="5">
         <v>1</v>
       </c>
@@ -1372,12 +1372,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="2"/>
@@ -1388,7 +1388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="2"/>
@@ -1396,17 +1396,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>55</v>
       </c>
@@ -1425,16 +1425,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>74</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1472,12 +1472,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>

--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId2"/>
+    <sheet name="Pjst" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
     <sheet name="blueprint" sheetId="3" r:id="rId4"/>
     <sheet name="idea" sheetId="4" r:id="rId5"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="242">
   <si>
     <t>메뉴 id, 메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,7 +842,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>google sheet elements</t>
+    <t>Project Structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +865,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +903,15 @@
       <color rgb="FF5F5F5F"/>
       <name val="Inherit"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1060,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,15 +1101,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1113,13 +1125,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,8 +1134,33 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,12 +1510,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="3" width="4.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="4.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.25" customWidth="1"/>
+    <col min="5" max="5" width="58.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1495,7 +1526,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25">
+    <row r="3" spans="1:6" ht="19.2">
       <c r="D3" s="3" t="s">
         <v>233</v>
       </c>
@@ -1630,43 +1661,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="2" spans="1:7" ht="25.2">
+      <c r="B2" s="30" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:7" ht="18" thickBot="1"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="F6" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1682,1173 +1731,1187 @@
       <selection activeCell="G85" sqref="G85:G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="3" spans="4:9" ht="17.25" thickBot="1"/>
-    <row r="4" spans="4:9" ht="57.75" thickBot="1">
-      <c r="D4" s="22" t="s">
+    <row r="3" spans="4:9" ht="18" thickBot="1"/>
+    <row r="4" spans="4:9" ht="55.8" thickBot="1">
+      <c r="D4" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D5" s="20" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D6" s="20" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="4:9" ht="42" thickBot="1">
+      <c r="D6" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D7" s="20" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="4:9" ht="42" thickBot="1">
+      <c r="D7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D8" s="20" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D9" s="20" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="4:9" ht="18" thickBot="1">
+      <c r="D9" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D10" s="20" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="4:9" ht="18" thickBot="1">
+      <c r="D10" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D11" s="20" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="4:9" ht="18" thickBot="1">
+      <c r="D11" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D12" s="20" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D13" s="20" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D13" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D14" s="20" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="4:9" ht="18" thickBot="1">
+      <c r="D14" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D15" s="20" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="4:9" ht="18" thickBot="1">
+      <c r="D15" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D16" s="20" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="4:9" ht="18" thickBot="1">
+      <c r="D16" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D17" s="20" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="4:9" ht="18" thickBot="1">
+      <c r="D17" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="4:9" ht="114">
-      <c r="D18" s="25" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="4:9" ht="110.4">
+      <c r="D18" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="4:9" ht="100.5" thickBot="1">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="4:9" ht="97.2" thickBot="1">
       <c r="D19" s="26"/>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="4:9" ht="99.75">
-      <c r="D20" s="25" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="4:9" ht="96.6">
+      <c r="D20" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="4:9" ht="43.5" thickBot="1">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="4:9" ht="42" thickBot="1">
       <c r="D21" s="26"/>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D22" s="20" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="4:9" ht="18" thickBot="1">
+      <c r="D22" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="17">
         <v>17</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>26</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="25">
         <v>62.2</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="25">
         <v>417</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="22">
         <v>2378</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D23" s="25" t="s">
+    <row r="23" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D23" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D24" s="24"/>
-      <c r="E24" s="20" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="4:9" ht="18" thickBot="1">
+      <c r="D24" s="25"/>
+      <c r="E24" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D25" s="24"/>
-      <c r="E25" s="20" t="s">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="4:9" ht="18" thickBot="1">
+      <c r="D25" s="25"/>
+      <c r="E25" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D26" s="24"/>
-      <c r="E26" s="20" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="4:9" ht="18" thickBot="1">
+      <c r="D26" s="25"/>
+      <c r="E26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D27" s="24"/>
-      <c r="E27" s="20" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="4:9" ht="18" thickBot="1">
+      <c r="D27" s="25"/>
+      <c r="E27" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D28" s="24"/>
-      <c r="E28" s="20" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D28" s="25"/>
+      <c r="E28" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D29" s="24"/>
-      <c r="E29" s="20" t="s">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="4:9" ht="18" thickBot="1">
+      <c r="D29" s="25"/>
+      <c r="E29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D30" s="24"/>
-      <c r="E30" s="20" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="4:9" ht="18" thickBot="1">
+      <c r="D30" s="25"/>
+      <c r="E30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D31" s="24"/>
-      <c r="E31" s="20" t="s">
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="4:9" ht="18" thickBot="1">
+      <c r="D31" s="25"/>
+      <c r="E31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D32" s="24"/>
-      <c r="E32" s="20" t="s">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="4:9" ht="18" thickBot="1">
+      <c r="D32" s="25"/>
+      <c r="E32" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D33" s="24"/>
-      <c r="E33" s="20" t="s">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D33" s="25"/>
+      <c r="E33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D34" s="24"/>
-      <c r="E34" s="20" t="s">
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D34" s="25"/>
+      <c r="E34" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D35" s="24"/>
-      <c r="E35" s="20" t="s">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D35" s="25"/>
+      <c r="E35" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D36" s="24"/>
-      <c r="E36" s="20" t="s">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D36" s="25"/>
+      <c r="E36" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D37" s="24"/>
-      <c r="E37" s="20" t="s">
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D37" s="25"/>
+      <c r="E37" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D38" s="24"/>
-      <c r="E38" s="20" t="s">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D38" s="25"/>
+      <c r="E38" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="4:9" ht="99.75">
-      <c r="D39" s="24"/>
-      <c r="E39" s="25" t="s">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="4:9" ht="96.6">
+      <c r="D39" s="25"/>
+      <c r="E39" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" spans="4:9" ht="29.25" thickBot="1">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="4:9" ht="28.2" thickBot="1">
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="17" t="s">
         <v>147</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
-      <c r="I40" s="28"/>
-    </row>
-    <row r="41" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D41" s="20" t="s">
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="4:9" ht="18" thickBot="1">
+      <c r="D41" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="17">
         <v>24</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="17">
         <v>27</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="24">
         <v>95.4</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="24">
         <v>824</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="21">
         <v>4897</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D42" s="25" t="s">
+    <row r="42" spans="4:9" ht="18" thickBot="1">
+      <c r="D42" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D43" s="24"/>
-      <c r="E43" s="20" t="s">
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D43" s="25"/>
+      <c r="E43" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D44" s="24"/>
-      <c r="E44" s="20" t="s">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D44" s="25"/>
+      <c r="E44" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D45" s="24"/>
-      <c r="E45" s="20" t="s">
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="4:9" ht="42" thickBot="1">
+      <c r="D45" s="25"/>
+      <c r="E45" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="27"/>
-    </row>
-    <row r="46" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D46" s="24"/>
-      <c r="E46" s="20" t="s">
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="4:9" ht="18" thickBot="1">
+      <c r="D46" s="25"/>
+      <c r="E46" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D47" s="24"/>
-      <c r="E47" s="20" t="s">
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="4:9" ht="18" thickBot="1">
+      <c r="D47" s="25"/>
+      <c r="E47" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="27"/>
-    </row>
-    <row r="48" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D48" s="24"/>
-      <c r="E48" s="20" t="s">
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="4:9" ht="18" thickBot="1">
+      <c r="D48" s="25"/>
+      <c r="E48" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="27"/>
-    </row>
-    <row r="49" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D49" s="24"/>
-      <c r="E49" s="20" t="s">
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D49" s="25"/>
+      <c r="E49" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="27"/>
-    </row>
-    <row r="50" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D50" s="24"/>
-      <c r="E50" s="20" t="s">
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="22"/>
+    </row>
+    <row r="50" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D50" s="25"/>
+      <c r="E50" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="27"/>
-    </row>
-    <row r="51" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D51" s="24"/>
-      <c r="E51" s="20" t="s">
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D51" s="25"/>
+      <c r="E51" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="27"/>
-    </row>
-    <row r="52" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D52" s="24"/>
-      <c r="E52" s="20" t="s">
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="22"/>
+    </row>
+    <row r="52" spans="4:9" ht="18" thickBot="1">
+      <c r="D52" s="25"/>
+      <c r="E52" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="27"/>
-    </row>
-    <row r="53" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D53" s="24"/>
-      <c r="E53" s="20" t="s">
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="4:9" ht="18" thickBot="1">
+      <c r="D53" s="25"/>
+      <c r="E53" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="27"/>
-    </row>
-    <row r="54" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D54" s="24"/>
-      <c r="E54" s="20" t="s">
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="4:9" ht="18" thickBot="1">
+      <c r="D54" s="25"/>
+      <c r="E54" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="27"/>
-    </row>
-    <row r="55" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D55" s="24"/>
-      <c r="E55" s="20" t="s">
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="22"/>
+    </row>
+    <row r="55" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D55" s="25"/>
+      <c r="E55" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="27"/>
-    </row>
-    <row r="56" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D56" s="24"/>
-      <c r="E56" s="20" t="s">
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D56" s="25"/>
+      <c r="E56" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="27"/>
-    </row>
-    <row r="57" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D57" s="24"/>
-      <c r="E57" s="20" t="s">
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D57" s="25"/>
+      <c r="E57" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="27"/>
-    </row>
-    <row r="58" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D58" s="24"/>
-      <c r="E58" s="20" t="s">
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D58" s="25"/>
+      <c r="E58" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="27"/>
-    </row>
-    <row r="59" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D59" s="24"/>
-      <c r="E59" s="20" t="s">
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D59" s="25"/>
+      <c r="E59" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="27"/>
-    </row>
-    <row r="60" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D60" s="24"/>
-      <c r="E60" s="20" t="s">
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="22"/>
+    </row>
+    <row r="60" spans="4:9" ht="18" thickBot="1">
+      <c r="D60" s="25"/>
+      <c r="E60" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="27"/>
-    </row>
-    <row r="61" spans="4:9" ht="57.75" thickBot="1">
-      <c r="D61" s="24"/>
-      <c r="E61" s="20" t="s">
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="22"/>
+    </row>
+    <row r="61" spans="4:9" ht="55.8" thickBot="1">
+      <c r="D61" s="25"/>
+      <c r="E61" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="27"/>
-    </row>
-    <row r="62" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D62" s="24"/>
-      <c r="E62" s="20" t="s">
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="4:9" ht="18" thickBot="1">
+      <c r="D62" s="25"/>
+      <c r="E62" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="27"/>
-    </row>
-    <row r="63" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D63" s="24"/>
-      <c r="E63" s="20" t="s">
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="22"/>
+    </row>
+    <row r="63" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D63" s="25"/>
+      <c r="E63" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="27"/>
-    </row>
-    <row r="64" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D64" s="24"/>
-      <c r="E64" s="20" t="s">
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D64" s="25"/>
+      <c r="E64" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="27"/>
-    </row>
-    <row r="65" spans="4:9" ht="99.75">
-      <c r="D65" s="24"/>
-      <c r="E65" s="25" t="s">
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="4:9" ht="96.6">
+      <c r="D65" s="25"/>
+      <c r="E65" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="27"/>
-    </row>
-    <row r="66" spans="4:9" ht="43.5" thickBot="1">
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="22"/>
+    </row>
+    <row r="66" spans="4:9" ht="42" thickBot="1">
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="17" t="s">
         <v>181</v>
       </c>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
-      <c r="I66" s="28"/>
-    </row>
-    <row r="67" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D67" s="20" t="s">
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="4:9" ht="18" thickBot="1">
+      <c r="D67" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="17">
         <v>13</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="17">
         <v>53</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="24">
         <v>176.6</v>
       </c>
-      <c r="H67" s="25">
+      <c r="H67" s="24">
         <v>631</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="21">
         <v>3510</v>
       </c>
     </row>
-    <row r="68" spans="4:9" ht="85.5">
-      <c r="D68" s="25" t="s">
+    <row r="68" spans="4:9" ht="82.8">
+      <c r="D68" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="27"/>
-    </row>
-    <row r="69" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D69" s="24"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" spans="4:9" ht="18" thickBot="1">
+      <c r="D69" s="25"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="27"/>
-    </row>
-    <row r="70" spans="4:9" ht="72" thickBot="1">
-      <c r="D70" s="24"/>
-      <c r="E70" s="20" t="s">
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="4:9" ht="69.599999999999994" thickBot="1">
+      <c r="D70" s="25"/>
+      <c r="E70" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="27"/>
-    </row>
-    <row r="71" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D71" s="24"/>
-      <c r="E71" s="20" t="s">
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" spans="4:9" ht="42" thickBot="1">
+      <c r="D71" s="25"/>
+      <c r="E71" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D72" s="24"/>
-      <c r="E72" s="20" t="s">
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="22"/>
+    </row>
+    <row r="72" spans="4:9" ht="42" thickBot="1">
+      <c r="D72" s="25"/>
+      <c r="E72" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="27"/>
-    </row>
-    <row r="73" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D73" s="24"/>
-      <c r="E73" s="20" t="s">
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="22"/>
+    </row>
+    <row r="73" spans="4:9" ht="42" thickBot="1">
+      <c r="D73" s="25"/>
+      <c r="E73" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="27"/>
-    </row>
-    <row r="74" spans="4:9" ht="86.25" thickBot="1">
-      <c r="D74" s="24"/>
-      <c r="E74" s="20" t="s">
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="22"/>
+    </row>
+    <row r="74" spans="4:9" ht="83.4" thickBot="1">
+      <c r="D74" s="25"/>
+      <c r="E74" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="27"/>
-    </row>
-    <row r="75" spans="4:9" ht="100.5" thickBot="1">
-      <c r="D75" s="24"/>
-      <c r="E75" s="20" t="s">
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" spans="4:9" ht="97.2" thickBot="1">
+      <c r="D75" s="25"/>
+      <c r="E75" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="27"/>
-    </row>
-    <row r="76" spans="4:9" ht="85.5">
-      <c r="D76" s="24"/>
-      <c r="E76" s="25" t="s">
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="22"/>
+    </row>
+    <row r="76" spans="4:9" ht="82.8">
+      <c r="D76" s="25"/>
+      <c r="E76" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="27"/>
-    </row>
-    <row r="77" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D77" s="24"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="4:9" ht="42" thickBot="1">
+      <c r="D77" s="25"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="20" t="s">
+      <c r="F77" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="27"/>
-    </row>
-    <row r="78" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D78" s="24"/>
-      <c r="E78" s="20" t="s">
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="22"/>
+    </row>
+    <row r="78" spans="4:9" ht="42" thickBot="1">
+      <c r="D78" s="25"/>
+      <c r="E78" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="27"/>
-    </row>
-    <row r="79" spans="4:9" ht="85.5">
-      <c r="D79" s="24"/>
-      <c r="E79" s="25" t="s">
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="22"/>
+    </row>
+    <row r="79" spans="4:9" ht="82.8">
+      <c r="D79" s="25"/>
+      <c r="E79" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="27"/>
-    </row>
-    <row r="80" spans="4:9" ht="57.75" thickBot="1">
-      <c r="D80" s="24"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" spans="4:9" ht="55.8" thickBot="1">
+      <c r="D80" s="25"/>
       <c r="E80" s="26"/>
-      <c r="F80" s="20" t="s">
+      <c r="F80" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="27"/>
-    </row>
-    <row r="81" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D81" s="24"/>
-      <c r="E81" s="20" t="s">
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="4:9" ht="42" thickBot="1">
+      <c r="D81" s="25"/>
+      <c r="E81" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="F81" s="20" t="s">
+      <c r="F81" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="27"/>
-    </row>
-    <row r="82" spans="4:9" ht="85.5">
-      <c r="D82" s="24"/>
-      <c r="E82" s="25" t="s">
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" spans="4:9" ht="82.8">
+      <c r="D82" s="25"/>
+      <c r="E82" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F82" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="27"/>
-    </row>
-    <row r="83" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D83" s="24"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="22"/>
+    </row>
+    <row r="83" spans="4:9" ht="18" thickBot="1">
+      <c r="D83" s="25"/>
       <c r="E83" s="26"/>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="27"/>
-    </row>
-    <row r="84" spans="4:9" ht="43.5" thickBot="1">
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="22"/>
+    </row>
+    <row r="84" spans="4:9" ht="42" thickBot="1">
       <c r="D84" s="26"/>
-      <c r="E84" s="20" t="s">
+      <c r="E84" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="17" t="s">
         <v>212</v>
       </c>
       <c r="G84" s="26"/>
       <c r="H84" s="26"/>
-      <c r="I84" s="28"/>
-    </row>
-    <row r="85" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D85" s="20" t="s">
+      <c r="I84" s="23"/>
+    </row>
+    <row r="85" spans="4:9" ht="18" thickBot="1">
+      <c r="D85" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="17">
         <v>12</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="17">
         <v>26</v>
       </c>
-      <c r="G85" s="25">
+      <c r="G85" s="24">
         <v>68.7</v>
       </c>
-      <c r="H85" s="25">
+      <c r="H85" s="24">
         <v>367</v>
       </c>
-      <c r="I85" s="29">
+      <c r="I85" s="21">
         <v>1948</v>
       </c>
     </row>
-    <row r="86" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D86" s="25" t="s">
+    <row r="86" spans="4:9" ht="18" thickBot="1">
+      <c r="D86" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F86" s="20" t="s">
+      <c r="F86" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="27"/>
-    </row>
-    <row r="87" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D87" s="24"/>
-      <c r="E87" s="20" t="s">
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="22"/>
+    </row>
+    <row r="87" spans="4:9" ht="18" thickBot="1">
+      <c r="D87" s="25"/>
+      <c r="E87" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="27"/>
-    </row>
-    <row r="88" spans="4:9" ht="57.75" thickBot="1">
-      <c r="D88" s="24"/>
-      <c r="E88" s="20" t="s">
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="22"/>
+    </row>
+    <row r="88" spans="4:9" ht="55.8" thickBot="1">
+      <c r="D88" s="25"/>
+      <c r="E88" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F88" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="27"/>
-    </row>
-    <row r="89" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D89" s="24"/>
-      <c r="E89" s="20" t="s">
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="22"/>
+    </row>
+    <row r="89" spans="4:9" ht="18" thickBot="1">
+      <c r="D89" s="25"/>
+      <c r="E89" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F89" s="20" t="s">
+      <c r="F89" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="27"/>
-    </row>
-    <row r="90" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D90" s="24"/>
-      <c r="E90" s="20" t="s">
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="22"/>
+    </row>
+    <row r="90" spans="4:9" ht="18" thickBot="1">
+      <c r="D90" s="25"/>
+      <c r="E90" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F90" s="20" t="s">
+      <c r="F90" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="27"/>
-    </row>
-    <row r="91" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D91" s="24"/>
-      <c r="E91" s="20" t="s">
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="22"/>
+    </row>
+    <row r="91" spans="4:9" ht="18" thickBot="1">
+      <c r="D91" s="25"/>
+      <c r="E91" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F91" s="20" t="s">
+      <c r="F91" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="27"/>
-    </row>
-    <row r="92" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D92" s="24"/>
-      <c r="E92" s="20" t="s">
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="22"/>
+    </row>
+    <row r="92" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D92" s="25"/>
+      <c r="E92" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F92" s="20" t="s">
+      <c r="F92" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="27"/>
-    </row>
-    <row r="93" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D93" s="24"/>
-      <c r="E93" s="20" t="s">
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="22"/>
+    </row>
+    <row r="93" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D93" s="25"/>
+      <c r="E93" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F93" s="20" t="s">
+      <c r="F93" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="27"/>
-    </row>
-    <row r="94" spans="4:9" ht="85.5">
-      <c r="D94" s="24"/>
-      <c r="E94" s="25" t="s">
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="22"/>
+    </row>
+    <row r="94" spans="4:9" ht="82.8">
+      <c r="D94" s="25"/>
+      <c r="E94" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F94" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="27"/>
-    </row>
-    <row r="95" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D95" s="24"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="22"/>
+    </row>
+    <row r="95" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D95" s="25"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="20" t="s">
+      <c r="F95" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="27"/>
-    </row>
-    <row r="96" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D96" s="24"/>
-      <c r="E96" s="20" t="s">
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="22"/>
+    </row>
+    <row r="96" spans="4:9" ht="18" thickBot="1">
+      <c r="D96" s="25"/>
+      <c r="E96" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="F96" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="27"/>
-    </row>
-    <row r="97" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D97" s="24"/>
-      <c r="E97" s="20" t="s">
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="22"/>
+    </row>
+    <row r="97" spans="4:9" ht="42" thickBot="1">
+      <c r="D97" s="25"/>
+      <c r="E97" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="F97" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="27"/>
-    </row>
-    <row r="98" spans="4:9" ht="43.5" thickBot="1">
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="22"/>
+    </row>
+    <row r="98" spans="4:9" ht="42" thickBot="1">
       <c r="D98" s="26"/>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F98" s="17" t="s">
         <v>231</v>
       </c>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
-      <c r="I98" s="28"/>
+      <c r="I98" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G22:G40"/>
+    <mergeCell ref="H22:H40"/>
+    <mergeCell ref="G67:G84"/>
+    <mergeCell ref="H67:H84"/>
+    <mergeCell ref="I22:I40"/>
+    <mergeCell ref="D23:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G41:G66"/>
+    <mergeCell ref="H41:H66"/>
+    <mergeCell ref="I41:I66"/>
+    <mergeCell ref="D42:D66"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="I85:I98"/>
     <mergeCell ref="D86:D98"/>
     <mergeCell ref="E94:E95"/>
@@ -2858,20 +2921,6 @@
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="E82:E83"/>
-    <mergeCell ref="I22:I40"/>
-    <mergeCell ref="D23:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G41:G66"/>
-    <mergeCell ref="H41:H66"/>
-    <mergeCell ref="I41:I66"/>
-    <mergeCell ref="D42:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G22:G40"/>
-    <mergeCell ref="H22:H40"/>
-    <mergeCell ref="G67:G84"/>
-    <mergeCell ref="H67:H84"/>
     <mergeCell ref="G85:G98"/>
     <mergeCell ref="H85:H98"/>
   </mergeCells>
@@ -2884,15 +2933,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="11.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -3099,7 +3148,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="9" spans="3:7">
       <c r="C9" s="2" t="s">
@@ -3176,124 +3225,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" activeCellId="1" sqref="E15 E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="9.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="7" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="17.25" thickBot="1">
+    <row r="3" spans="3:9" ht="18" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="17.25" thickBot="1">
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+    <row r="10" spans="3:9" ht="18" thickBot="1">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="17.25" thickBot="1">
+    <row r="13" spans="3:9" ht="18" thickBot="1">
       <c r="G13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="19" spans="3:19">
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="R19" s="7">
         <v>44960</v>
       </c>
@@ -3302,22 +3351,22 @@
       </c>
     </row>
     <row r="20" spans="3:19">
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="S20" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="3:19" ht="17.25" thickBot="1">
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="3:19" ht="18" thickBot="1">
+      <c r="C22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="25" spans="3:19">
       <c r="C25" s="7" t="s">
@@ -3363,9 +3412,9 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3419,5 +3468,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="289">
   <si>
     <t>메뉴 id, 메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -855,6 +855,194 @@
   </si>
   <si>
     <t>menu Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 뭐먹지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 내지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디갈까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴누르면 어디갈까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색어 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 뭐먹지에서 값받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류별 랭킹 페이지를 만듦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db에서 메뉴 랭킹정보 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">랭킹박스 3개 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 이미지는 메뉴 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹박스기준은 랜덤값 줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원 추가 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게에 대한 상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이부분 존나 어려움..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 구글 맵으로 이동 가능케</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일방적으로 db에 정보 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 인원을 디비 폼에 맞춰넘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 사용 정보를 활용할 수 있게 양식을 맞추자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 내용 : 성별/나이/메뉴/가게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동네 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 넣어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 이미지 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Studied tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json &amp; ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block increase hit num when clicking detail article again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No need to redirect to identify id about duplicate or null value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jstl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make jsp statement method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기와요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 정보를 업로드 할 수 있게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 메뉴 이미지 배경으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 자체에 임베드?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB연계가 필요할까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 자체에 파라미터로 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가형식으로 최대 10명까지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임형식으로 한명 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 애니메이션 넣어도 좋고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 옆에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되면 보이게끔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1125,7 +1313,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,13 +1338,7 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1152,16 +1350,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1504,18 +1693,18 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="3" width="4.19921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="4.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.19921875" customWidth="1"/>
+    <col min="5" max="5" width="58.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1526,7 +1715,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.2">
+    <row r="3" spans="1:6" ht="17.25">
       <c r="D3" s="3" t="s">
         <v>233</v>
       </c>
@@ -1650,6 +1839,79 @@
     <row r="15" spans="1:6">
       <c r="D15" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="D19" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1661,61 +1923,200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="23.375" customWidth="1"/>
+    <col min="16" max="16" width="28.25" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="18" width="27" customWidth="1"/>
+    <col min="19" max="19" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25.2">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:19" ht="26.25">
+      <c r="B2" s="21" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1"/>
-    <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="N2" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="N3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O3" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R3" t="s">
+        <v>276</v>
+      </c>
+      <c r="S3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="O4" t="s">
+        <v>247</v>
+      </c>
+      <c r="P4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" t="s">
+        <v>249</v>
+      </c>
+      <c r="S4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" thickBot="1">
+      <c r="O5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>258</v>
+      </c>
+      <c r="R5" t="s">
+        <v>250</v>
+      </c>
+      <c r="S5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="F6" s="31" t="s">
+      <c r="C6" s="23"/>
+      <c r="F6" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="G6" s="23"/>
+      <c r="O6" t="s">
+        <v>251</v>
+      </c>
+      <c r="P6" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>259</v>
+      </c>
+      <c r="R6" t="s">
+        <v>277</v>
+      </c>
+      <c r="S6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="O7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>281</v>
+      </c>
+      <c r="R7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="O8" t="s">
+        <v>253</v>
+      </c>
+      <c r="P8" t="s">
+        <v>284</v>
+      </c>
+      <c r="R8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="O9" t="s">
+        <v>254</v>
+      </c>
+      <c r="P9" t="s">
+        <v>260</v>
+      </c>
+      <c r="R9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="17.25" thickBot="1">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="O10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="O11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="N16" s="38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17">
+      <c r="N17" t="s">
+        <v>263</v>
+      </c>
+      <c r="O17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17">
+      <c r="N18" t="s">
+        <v>266</v>
+      </c>
+      <c r="O18" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1731,10 +2132,10 @@
       <selection activeCell="G85" sqref="G85:G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="3" spans="4:9" ht="18" thickBot="1"/>
-    <row r="4" spans="4:9" ht="55.8" thickBot="1">
+    <row r="3" spans="4:9" ht="17.25" thickBot="1"/>
+    <row r="4" spans="4:9" ht="57.75" thickBot="1">
       <c r="D4" s="19" t="s">
         <v>96</v>
       </c>
@@ -1746,7 +2147,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="4:9" ht="28.2" thickBot="1">
+    <row r="5" spans="4:9" ht="29.25" thickBot="1">
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
@@ -1758,7 +2159,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="4:9" ht="42" thickBot="1">
+    <row r="6" spans="4:9" ht="43.5" thickBot="1">
       <c r="D6" s="17" t="s">
         <v>100</v>
       </c>
@@ -1770,7 +2171,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="4:9" ht="42" thickBot="1">
+    <row r="7" spans="4:9" ht="43.5" thickBot="1">
       <c r="D7" s="17" t="s">
         <v>102</v>
       </c>
@@ -1782,7 +2183,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="4:9" ht="28.2" thickBot="1">
+    <row r="8" spans="4:9" ht="29.25" thickBot="1">
       <c r="D8" s="17" t="s">
         <v>104</v>
       </c>
@@ -1794,7 +2195,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="4:9" ht="18" thickBot="1">
+    <row r="9" spans="4:9" ht="17.25" thickBot="1">
       <c r="D9" s="17" t="s">
         <v>106</v>
       </c>
@@ -1806,7 +2207,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="4:9" ht="18" thickBot="1">
+    <row r="10" spans="4:9" ht="17.25" thickBot="1">
       <c r="D10" s="17" t="s">
         <v>107</v>
       </c>
@@ -1818,7 +2219,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="4:9" ht="18" thickBot="1">
+    <row r="11" spans="4:9" ht="17.25" thickBot="1">
       <c r="D11" s="17" t="s">
         <v>108</v>
       </c>
@@ -1830,7 +2231,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="4:9" ht="28.2" thickBot="1">
+    <row r="12" spans="4:9" ht="29.25" thickBot="1">
       <c r="D12" s="17" t="s">
         <v>109</v>
       </c>
@@ -1842,7 +2243,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="4:9" ht="28.2" thickBot="1">
+    <row r="13" spans="4:9" ht="29.25" thickBot="1">
       <c r="D13" s="17" t="s">
         <v>111</v>
       </c>
@@ -1854,7 +2255,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="4:9" ht="18" thickBot="1">
+    <row r="14" spans="4:9" ht="17.25" thickBot="1">
       <c r="D14" s="17" t="s">
         <v>112</v>
       </c>
@@ -1866,7 +2267,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="4:9" ht="18" thickBot="1">
+    <row r="15" spans="4:9" ht="17.25" thickBot="1">
       <c r="D15" s="17" t="s">
         <v>113</v>
       </c>
@@ -1878,7 +2279,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="4:9" ht="18" thickBot="1">
+    <row r="16" spans="4:9" ht="17.25" thickBot="1">
       <c r="D16" s="17" t="s">
         <v>114</v>
       </c>
@@ -1890,7 +2291,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="4:9" ht="18" thickBot="1">
+    <row r="17" spans="4:9" ht="17.25" thickBot="1">
       <c r="D17" s="17" t="s">
         <v>115</v>
       </c>
@@ -1902,8 +2303,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="4:9" ht="110.4">
-      <c r="D18" s="24" t="s">
+    <row r="18" spans="4:9" ht="114">
+      <c r="D18" s="29" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="18" t="s">
@@ -1914,8 +2315,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="4:9" ht="97.2" thickBot="1">
-      <c r="D19" s="26"/>
+    <row r="19" spans="4:9" ht="100.5" thickBot="1">
+      <c r="D19" s="30"/>
       <c r="E19" s="17" t="s">
         <v>118</v>
       </c>
@@ -1924,8 +2325,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="4:9" ht="96.6">
-      <c r="D20" s="24" t="s">
+    <row r="20" spans="4:9" ht="99.75">
+      <c r="D20" s="29" t="s">
         <v>119</v>
       </c>
       <c r="E20" s="18" t="s">
@@ -1936,8 +2337,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="4:9" ht="42" thickBot="1">
-      <c r="D21" s="26"/>
+    <row r="21" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D21" s="30"/>
       <c r="E21" s="17" t="s">
         <v>121</v>
       </c>
@@ -1946,7 +2347,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="4:9" ht="18" thickBot="1">
+    <row r="22" spans="4:9" ht="17.25" thickBot="1">
       <c r="D22" s="17" t="s">
         <v>122</v>
       </c>
@@ -1956,18 +2357,18 @@
       <c r="F22" s="17">
         <v>26</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="31">
         <v>62.2</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="31">
         <v>417</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="32">
         <v>2378</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D23" s="24" t="s">
+    <row r="23" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D23" s="29" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -1976,213 +2377,213 @@
       <c r="F23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="4:9" ht="18" thickBot="1">
-      <c r="D24" s="25"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D24" s="31"/>
       <c r="E24" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="4:9" ht="18" thickBot="1">
-      <c r="D25" s="25"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D25" s="31"/>
       <c r="E25" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="4:9" ht="18" thickBot="1">
-      <c r="D26" s="25"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D26" s="31"/>
       <c r="E26" s="17" t="s">
         <v>128</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="4:9" ht="18" thickBot="1">
-      <c r="D27" s="25"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D27" s="31"/>
       <c r="E27" s="17" t="s">
         <v>129</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D28" s="25"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D28" s="31"/>
       <c r="E28" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="4:9" ht="18" thickBot="1">
-      <c r="D29" s="25"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D29" s="31"/>
       <c r="E29" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="4:9" ht="18" thickBot="1">
-      <c r="D30" s="25"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D30" s="31"/>
       <c r="E30" s="17" t="s">
         <v>133</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="4:9" ht="18" thickBot="1">
-      <c r="D31" s="25"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D31" s="31"/>
       <c r="E31" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="4:9" ht="18" thickBot="1">
-      <c r="D32" s="25"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D32" s="31"/>
       <c r="E32" s="17" t="s">
         <v>135</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D33" s="25"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D33" s="31"/>
       <c r="E33" s="17" t="s">
         <v>136</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D34" s="25"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D34" s="31"/>
       <c r="E34" s="17" t="s">
         <v>138</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D35" s="25"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D35" s="31"/>
       <c r="E35" s="17" t="s">
         <v>139</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D36" s="25"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D36" s="31"/>
       <c r="E36" s="17" t="s">
         <v>141</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D37" s="25"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D37" s="31"/>
       <c r="E37" s="17" t="s">
         <v>142</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D38" s="25"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D38" s="31"/>
       <c r="E38" s="17" t="s">
         <v>144</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="22"/>
-    </row>
-    <row r="39" spans="4:9" ht="96.6">
-      <c r="D39" s="25"/>
-      <c r="E39" s="24" t="s">
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="4:9" ht="99.75">
+      <c r="D39" s="31"/>
+      <c r="E39" s="29" t="s">
         <v>145</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="22"/>
-    </row>
-    <row r="40" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="4:9" ht="18" thickBot="1">
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="4:9" ht="17.25" thickBot="1">
       <c r="D41" s="17" t="s">
         <v>122</v>
       </c>
@@ -2192,18 +2593,18 @@
       <c r="F41" s="17">
         <v>27</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="29">
         <v>95.4</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="29">
         <v>824</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="34">
         <v>4897</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="18" thickBot="1">
-      <c r="D42" s="24" t="s">
+    <row r="42" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D42" s="29" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="17" t="s">
@@ -2212,297 +2613,297 @@
       <c r="F42" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D43" s="25"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D43" s="31"/>
       <c r="E43" s="17" t="s">
         <v>150</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D44" s="25"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D44" s="31"/>
       <c r="E44" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" spans="4:9" ht="42" thickBot="1">
-      <c r="D45" s="25"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D45" s="31"/>
       <c r="E45" s="17" t="s">
         <v>153</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" spans="4:9" ht="18" thickBot="1">
-      <c r="D46" s="25"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D46" s="31"/>
       <c r="E46" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="22"/>
-    </row>
-    <row r="47" spans="4:9" ht="18" thickBot="1">
-      <c r="D47" s="25"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D47" s="31"/>
       <c r="E47" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="22"/>
-    </row>
-    <row r="48" spans="4:9" ht="18" thickBot="1">
-      <c r="D48" s="25"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D48" s="31"/>
       <c r="E48" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="22"/>
-    </row>
-    <row r="49" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D49" s="25"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D49" s="31"/>
       <c r="E49" s="17" t="s">
         <v>158</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="22"/>
-    </row>
-    <row r="50" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D50" s="25"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D50" s="31"/>
       <c r="E50" s="17" t="s">
         <v>160</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="22"/>
-    </row>
-    <row r="51" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D51" s="25"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D51" s="31"/>
       <c r="E51" s="17" t="s">
         <v>161</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="22"/>
-    </row>
-    <row r="52" spans="4:9" ht="18" thickBot="1">
-      <c r="D52" s="25"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D52" s="31"/>
       <c r="E52" s="17" t="s">
         <v>162</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="22"/>
-    </row>
-    <row r="53" spans="4:9" ht="18" thickBot="1">
-      <c r="D53" s="25"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D53" s="31"/>
       <c r="E53" s="17" t="s">
         <v>163</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="22"/>
-    </row>
-    <row r="54" spans="4:9" ht="18" thickBot="1">
-      <c r="D54" s="25"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D54" s="31"/>
       <c r="E54" s="17" t="s">
         <v>164</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="22"/>
-    </row>
-    <row r="55" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D55" s="25"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D55" s="31"/>
       <c r="E55" s="17" t="s">
         <v>165</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D56" s="25"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D56" s="31"/>
       <c r="E56" s="17" t="s">
         <v>167</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="22"/>
-    </row>
-    <row r="57" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D57" s="25"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D57" s="31"/>
       <c r="E57" s="17" t="s">
         <v>168</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="22"/>
-    </row>
-    <row r="58" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D58" s="25"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D58" s="31"/>
       <c r="E58" s="17" t="s">
         <v>170</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="22"/>
-    </row>
-    <row r="59" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D59" s="25"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D59" s="31"/>
       <c r="E59" s="17" t="s">
         <v>171</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="22"/>
-    </row>
-    <row r="60" spans="4:9" ht="18" thickBot="1">
-      <c r="D60" s="25"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D60" s="31"/>
       <c r="E60" s="17" t="s">
         <v>172</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="22"/>
-    </row>
-    <row r="61" spans="4:9" ht="55.8" thickBot="1">
-      <c r="D61" s="25"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="4:9" ht="57.75" thickBot="1">
+      <c r="D61" s="31"/>
       <c r="E61" s="17" t="s">
         <v>173</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="22"/>
-    </row>
-    <row r="62" spans="4:9" ht="18" thickBot="1">
-      <c r="D62" s="25"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D62" s="31"/>
       <c r="E62" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="22"/>
-    </row>
-    <row r="63" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D63" s="25"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D63" s="31"/>
       <c r="E63" s="17" t="s">
         <v>176</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="22"/>
-    </row>
-    <row r="64" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D64" s="25"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D64" s="31"/>
       <c r="E64" s="17" t="s">
         <v>178</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="22"/>
-    </row>
-    <row r="65" spans="4:9" ht="96.6">
-      <c r="D65" s="25"/>
-      <c r="E65" s="24" t="s">
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="32"/>
+    </row>
+    <row r="65" spans="4:9" ht="99.75">
+      <c r="D65" s="31"/>
+      <c r="E65" s="29" t="s">
         <v>179</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="22"/>
-    </row>
-    <row r="66" spans="4:9" ht="42" thickBot="1">
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
       <c r="F66" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="23"/>
-    </row>
-    <row r="67" spans="4:9" ht="18" thickBot="1">
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="33"/>
+    </row>
+    <row r="67" spans="4:9" ht="17.25" thickBot="1">
       <c r="D67" s="17" t="s">
         <v>122</v>
       </c>
@@ -2512,215 +2913,215 @@
       <c r="F67" s="17">
         <v>53</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="29">
         <v>176.6</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H67" s="29">
         <v>631</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="34">
         <v>3510</v>
       </c>
     </row>
-    <row r="68" spans="4:9" ht="82.8">
-      <c r="D68" s="24" t="s">
+    <row r="68" spans="4:9" ht="85.5">
+      <c r="D68" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="29" t="s">
         <v>183</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="22"/>
-    </row>
-    <row r="69" spans="4:9" ht="18" thickBot="1">
-      <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D69" s="31"/>
+      <c r="E69" s="30"/>
       <c r="F69" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="22"/>
-    </row>
-    <row r="70" spans="4:9" ht="69.599999999999994" thickBot="1">
-      <c r="D70" s="25"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" spans="4:9" ht="72" thickBot="1">
+      <c r="D70" s="31"/>
       <c r="E70" s="17" t="s">
         <v>186</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="22"/>
-    </row>
-    <row r="71" spans="4:9" ht="42" thickBot="1">
-      <c r="D71" s="25"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="32"/>
+    </row>
+    <row r="71" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D71" s="31"/>
       <c r="E71" s="17" t="s">
         <v>188</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="22"/>
-    </row>
-    <row r="72" spans="4:9" ht="42" thickBot="1">
-      <c r="D72" s="25"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="32"/>
+    </row>
+    <row r="72" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D72" s="31"/>
       <c r="E72" s="17" t="s">
         <v>190</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="22"/>
-    </row>
-    <row r="73" spans="4:9" ht="42" thickBot="1">
-      <c r="D73" s="25"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="32"/>
+    </row>
+    <row r="73" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D73" s="31"/>
       <c r="E73" s="17" t="s">
         <v>192</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="22"/>
-    </row>
-    <row r="74" spans="4:9" ht="83.4" thickBot="1">
-      <c r="D74" s="25"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="32"/>
+    </row>
+    <row r="74" spans="4:9" ht="86.25" thickBot="1">
+      <c r="D74" s="31"/>
       <c r="E74" s="17" t="s">
         <v>194</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="22"/>
-    </row>
-    <row r="75" spans="4:9" ht="97.2" thickBot="1">
-      <c r="D75" s="25"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="32"/>
+    </row>
+    <row r="75" spans="4:9" ht="100.5" thickBot="1">
+      <c r="D75" s="31"/>
       <c r="E75" s="17" t="s">
         <v>196</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="22"/>
-    </row>
-    <row r="76" spans="4:9" ht="82.8">
-      <c r="D76" s="25"/>
-      <c r="E76" s="24" t="s">
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="32"/>
+    </row>
+    <row r="76" spans="4:9" ht="85.5">
+      <c r="D76" s="31"/>
+      <c r="E76" s="29" t="s">
         <v>198</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="22"/>
-    </row>
-    <row r="77" spans="4:9" ht="42" thickBot="1">
-      <c r="D77" s="25"/>
-      <c r="E77" s="26"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="32"/>
+    </row>
+    <row r="77" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D77" s="31"/>
+      <c r="E77" s="30"/>
       <c r="F77" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="22"/>
-    </row>
-    <row r="78" spans="4:9" ht="42" thickBot="1">
-      <c r="D78" s="25"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="32"/>
+    </row>
+    <row r="78" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D78" s="31"/>
       <c r="E78" s="17" t="s">
         <v>201</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="22"/>
-    </row>
-    <row r="79" spans="4:9" ht="82.8">
-      <c r="D79" s="25"/>
-      <c r="E79" s="24" t="s">
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="32"/>
+    </row>
+    <row r="79" spans="4:9" ht="85.5">
+      <c r="D79" s="31"/>
+      <c r="E79" s="29" t="s">
         <v>203</v>
       </c>
       <c r="F79" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="22"/>
-    </row>
-    <row r="80" spans="4:9" ht="55.8" thickBot="1">
-      <c r="D80" s="25"/>
-      <c r="E80" s="26"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="32"/>
+    </row>
+    <row r="80" spans="4:9" ht="57.75" thickBot="1">
+      <c r="D80" s="31"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="22"/>
-    </row>
-    <row r="81" spans="4:9" ht="42" thickBot="1">
-      <c r="D81" s="25"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="32"/>
+    </row>
+    <row r="81" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D81" s="31"/>
       <c r="E81" s="17" t="s">
         <v>206</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="22"/>
-    </row>
-    <row r="82" spans="4:9" ht="82.8">
-      <c r="D82" s="25"/>
-      <c r="E82" s="24" t="s">
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" spans="4:9" ht="85.5">
+      <c r="D82" s="31"/>
+      <c r="E82" s="29" t="s">
         <v>208</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="22"/>
-    </row>
-    <row r="83" spans="4:9" ht="18" thickBot="1">
-      <c r="D83" s="25"/>
-      <c r="E83" s="26"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="32"/>
+    </row>
+    <row r="83" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D83" s="31"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="22"/>
-    </row>
-    <row r="84" spans="4:9" ht="42" thickBot="1">
-      <c r="D84" s="26"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="32"/>
+    </row>
+    <row r="84" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D84" s="30"/>
       <c r="E84" s="17" t="s">
         <v>211</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="23"/>
-    </row>
-    <row r="85" spans="4:9" ht="18" thickBot="1">
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="33"/>
+    </row>
+    <row r="85" spans="4:9" ht="17.25" thickBot="1">
       <c r="D85" s="17" t="s">
         <v>122</v>
       </c>
@@ -2730,18 +3131,18 @@
       <c r="F85" s="17">
         <v>26</v>
       </c>
-      <c r="G85" s="24">
+      <c r="G85" s="29">
         <v>68.7</v>
       </c>
-      <c r="H85" s="24">
+      <c r="H85" s="29">
         <v>367</v>
       </c>
-      <c r="I85" s="21">
+      <c r="I85" s="34">
         <v>1948</v>
       </c>
     </row>
-    <row r="86" spans="4:9" ht="18" thickBot="1">
-      <c r="D86" s="24" t="s">
+    <row r="86" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D86" s="29" t="s">
         <v>213</v>
       </c>
       <c r="E86" s="17" t="s">
@@ -2750,168 +3151,154 @@
       <c r="F86" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="22"/>
-    </row>
-    <row r="87" spans="4:9" ht="18" thickBot="1">
-      <c r="D87" s="25"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="32"/>
+    </row>
+    <row r="87" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D87" s="31"/>
       <c r="E87" s="17" t="s">
         <v>215</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="22"/>
-    </row>
-    <row r="88" spans="4:9" ht="55.8" thickBot="1">
-      <c r="D88" s="25"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="32"/>
+    </row>
+    <row r="88" spans="4:9" ht="57.75" thickBot="1">
+      <c r="D88" s="31"/>
       <c r="E88" s="17" t="s">
         <v>216</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="22"/>
-    </row>
-    <row r="89" spans="4:9" ht="18" thickBot="1">
-      <c r="D89" s="25"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="32"/>
+    </row>
+    <row r="89" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D89" s="31"/>
       <c r="E89" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="22"/>
-    </row>
-    <row r="90" spans="4:9" ht="18" thickBot="1">
-      <c r="D90" s="25"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="32"/>
+    </row>
+    <row r="90" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D90" s="31"/>
       <c r="E90" s="17" t="s">
         <v>219</v>
       </c>
       <c r="F90" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="22"/>
-    </row>
-    <row r="91" spans="4:9" ht="18" thickBot="1">
-      <c r="D91" s="25"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="32"/>
+    </row>
+    <row r="91" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D91" s="31"/>
       <c r="E91" s="17" t="s">
         <v>220</v>
       </c>
       <c r="F91" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="22"/>
-    </row>
-    <row r="92" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D92" s="25"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="32"/>
+    </row>
+    <row r="92" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D92" s="31"/>
       <c r="E92" s="17" t="s">
         <v>221</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="22"/>
-    </row>
-    <row r="93" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D93" s="25"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="32"/>
+    </row>
+    <row r="93" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D93" s="31"/>
       <c r="E93" s="17" t="s">
         <v>223</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="22"/>
-    </row>
-    <row r="94" spans="4:9" ht="82.8">
-      <c r="D94" s="25"/>
-      <c r="E94" s="24" t="s">
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="32"/>
+    </row>
+    <row r="94" spans="4:9" ht="85.5">
+      <c r="D94" s="31"/>
+      <c r="E94" s="29" t="s">
         <v>224</v>
       </c>
       <c r="F94" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="22"/>
-    </row>
-    <row r="95" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D95" s="25"/>
-      <c r="E95" s="26"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="32"/>
+    </row>
+    <row r="95" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D95" s="31"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="22"/>
-    </row>
-    <row r="96" spans="4:9" ht="18" thickBot="1">
-      <c r="D96" s="25"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="32"/>
+    </row>
+    <row r="96" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D96" s="31"/>
       <c r="E96" s="17" t="s">
         <v>227</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="22"/>
-    </row>
-    <row r="97" spans="4:9" ht="42" thickBot="1">
-      <c r="D97" s="25"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="32"/>
+    </row>
+    <row r="97" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D97" s="31"/>
       <c r="E97" s="17" t="s">
         <v>228</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="22"/>
-    </row>
-    <row r="98" spans="4:9" ht="42" thickBot="1">
-      <c r="D98" s="26"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="32"/>
+    </row>
+    <row r="98" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D98" s="30"/>
       <c r="E98" s="17" t="s">
         <v>230</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="23"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G22:G40"/>
-    <mergeCell ref="H22:H40"/>
-    <mergeCell ref="G67:G84"/>
-    <mergeCell ref="H67:H84"/>
-    <mergeCell ref="I22:I40"/>
-    <mergeCell ref="D23:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G41:G66"/>
-    <mergeCell ref="H41:H66"/>
-    <mergeCell ref="I41:I66"/>
-    <mergeCell ref="D42:D66"/>
-    <mergeCell ref="E65:E66"/>
     <mergeCell ref="I85:I98"/>
     <mergeCell ref="D86:D98"/>
     <mergeCell ref="E94:E95"/>
@@ -2923,6 +3310,20 @@
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="G85:G98"/>
     <mergeCell ref="H85:H98"/>
+    <mergeCell ref="I22:I40"/>
+    <mergeCell ref="D23:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G41:G66"/>
+    <mergeCell ref="H41:H66"/>
+    <mergeCell ref="I41:I66"/>
+    <mergeCell ref="D42:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G22:G40"/>
+    <mergeCell ref="H22:H40"/>
+    <mergeCell ref="G67:G84"/>
+    <mergeCell ref="H67:H84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,11 +3338,11 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="11.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -3148,7 +3549,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="9" spans="3:7">
       <c r="C9" s="2" t="s">
@@ -3229,25 +3630,25 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="9.69921875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="7" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="18" thickBot="1">
+    <row r="3" spans="3:9" ht="17.25" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="9">
@@ -3301,7 +3702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="18" thickBot="1">
+    <row r="10" spans="3:9" ht="17.25" thickBot="1">
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
     </row>
@@ -3310,18 +3711,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="18" thickBot="1">
+    <row r="13" spans="3:9" ht="17.25" thickBot="1">
       <c r="G13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="9">
@@ -3363,7 +3764,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="3:19" ht="18" thickBot="1">
+    <row r="22" spans="3:19" ht="17.25" thickBot="1">
       <c r="C22" s="15"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -3412,9 +3813,9 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="24.09765625" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
     <sheet name="blueprint" sheetId="3" r:id="rId4"/>
     <sheet name="idea" sheetId="4" r:id="rId5"/>
-    <sheet name="DB" sheetId="1" r:id="rId6"/>
-    <sheet name="feedback" sheetId="5" r:id="rId7"/>
+    <sheet name="Tip" sheetId="9" r:id="rId6"/>
+    <sheet name="DB" sheetId="1" r:id="rId7"/>
+    <sheet name="feedback" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="291">
   <si>
     <t>메뉴 id, 메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1043,6 +1044,14 @@
   </si>
   <si>
     <t>지역설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller doesn't need request variable to use inputdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Components manage bean data, study more about it</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,6 +1121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1323,13 +1338,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,7 +1348,13 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1366,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1699,12 +1717,12 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="3" width="4.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="4.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.25" customWidth="1"/>
+    <col min="5" max="5" width="58.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1715,7 +1733,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25">
+    <row r="3" spans="1:6" ht="19.2">
       <c r="D3" s="3" t="s">
         <v>233</v>
       </c>
@@ -1925,24 +1943,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="23.375" customWidth="1"/>
-    <col min="16" max="16" width="28.25" customWidth="1"/>
+    <col min="15" max="15" width="23.3984375" customWidth="1"/>
+    <col min="16" max="16" width="28.19921875" customWidth="1"/>
     <col min="17" max="17" width="29" customWidth="1"/>
     <col min="18" max="18" width="27" customWidth="1"/>
-    <col min="19" max="19" width="20.125" customWidth="1"/>
+    <col min="19" max="19" width="20.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="26.25">
+    <row r="2" spans="1:19" ht="25.2">
       <c r="B2" s="21" t="s">
         <v>238</v>
       </c>
@@ -1987,7 +2005,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17.25" thickBot="1">
+    <row r="5" spans="1:19" ht="18" thickBot="1">
       <c r="O5" t="s">
         <v>248</v>
       </c>
@@ -2080,7 +2098,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17.25" thickBot="1">
+    <row r="10" spans="1:19" ht="18" thickBot="1">
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="F10" s="26"/>
@@ -2095,7 +2113,7 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="29" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2132,10 +2150,10 @@
       <selection activeCell="G85" sqref="G85:G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="3" spans="4:9" ht="17.25" thickBot="1"/>
-    <row r="4" spans="4:9" ht="57.75" thickBot="1">
+    <row r="3" spans="4:9" ht="18" thickBot="1"/>
+    <row r="4" spans="4:9" ht="55.8" thickBot="1">
       <c r="D4" s="19" t="s">
         <v>96</v>
       </c>
@@ -2147,7 +2165,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="4:9" ht="29.25" thickBot="1">
+    <row r="5" spans="4:9" ht="28.2" thickBot="1">
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
@@ -2159,7 +2177,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="4:9" ht="43.5" thickBot="1">
+    <row r="6" spans="4:9" ht="42" thickBot="1">
       <c r="D6" s="17" t="s">
         <v>100</v>
       </c>
@@ -2171,7 +2189,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="4:9" ht="43.5" thickBot="1">
+    <row r="7" spans="4:9" ht="42" thickBot="1">
       <c r="D7" s="17" t="s">
         <v>102</v>
       </c>
@@ -2183,7 +2201,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="4:9" ht="29.25" thickBot="1">
+    <row r="8" spans="4:9" ht="28.2" thickBot="1">
       <c r="D8" s="17" t="s">
         <v>104</v>
       </c>
@@ -2195,7 +2213,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="4:9" ht="17.25" thickBot="1">
+    <row r="9" spans="4:9" ht="18" thickBot="1">
       <c r="D9" s="17" t="s">
         <v>106</v>
       </c>
@@ -2207,7 +2225,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="4:9" ht="17.25" thickBot="1">
+    <row r="10" spans="4:9" ht="18" thickBot="1">
       <c r="D10" s="17" t="s">
         <v>107</v>
       </c>
@@ -2219,7 +2237,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="4:9" ht="17.25" thickBot="1">
+    <row r="11" spans="4:9" ht="18" thickBot="1">
       <c r="D11" s="17" t="s">
         <v>108</v>
       </c>
@@ -2231,7 +2249,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="4:9" ht="29.25" thickBot="1">
+    <row r="12" spans="4:9" ht="28.2" thickBot="1">
       <c r="D12" s="17" t="s">
         <v>109</v>
       </c>
@@ -2243,7 +2261,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="4:9" ht="29.25" thickBot="1">
+    <row r="13" spans="4:9" ht="28.2" thickBot="1">
       <c r="D13" s="17" t="s">
         <v>111</v>
       </c>
@@ -2255,7 +2273,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="4:9" ht="17.25" thickBot="1">
+    <row r="14" spans="4:9" ht="18" thickBot="1">
       <c r="D14" s="17" t="s">
         <v>112</v>
       </c>
@@ -2267,7 +2285,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="4:9" ht="17.25" thickBot="1">
+    <row r="15" spans="4:9" ht="18" thickBot="1">
       <c r="D15" s="17" t="s">
         <v>113</v>
       </c>
@@ -2279,7 +2297,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="4:9" ht="17.25" thickBot="1">
+    <row r="16" spans="4:9" ht="18" thickBot="1">
       <c r="D16" s="17" t="s">
         <v>114</v>
       </c>
@@ -2291,7 +2309,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="4:9" ht="17.25" thickBot="1">
+    <row r="17" spans="4:9" ht="18" thickBot="1">
       <c r="D17" s="17" t="s">
         <v>115</v>
       </c>
@@ -2303,8 +2321,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="4:9" ht="114">
-      <c r="D18" s="29" t="s">
+    <row r="18" spans="4:9" ht="110.4">
+      <c r="D18" s="33" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="18" t="s">
@@ -2315,8 +2333,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="4:9" ht="100.5" thickBot="1">
-      <c r="D19" s="30"/>
+    <row r="19" spans="4:9" ht="97.2" thickBot="1">
+      <c r="D19" s="35"/>
       <c r="E19" s="17" t="s">
         <v>118</v>
       </c>
@@ -2325,8 +2343,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="4:9" ht="99.75">
-      <c r="D20" s="29" t="s">
+    <row r="20" spans="4:9" ht="96.6">
+      <c r="D20" s="33" t="s">
         <v>119</v>
       </c>
       <c r="E20" s="18" t="s">
@@ -2337,8 +2355,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D21" s="30"/>
+    <row r="21" spans="4:9" ht="42" thickBot="1">
+      <c r="D21" s="35"/>
       <c r="E21" s="17" t="s">
         <v>121</v>
       </c>
@@ -2347,7 +2365,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="4:9" ht="17.25" thickBot="1">
+    <row r="22" spans="4:9" ht="18" thickBot="1">
       <c r="D22" s="17" t="s">
         <v>122</v>
       </c>
@@ -2357,18 +2375,18 @@
       <c r="F22" s="17">
         <v>26</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="34">
         <v>62.2</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="34">
         <v>417</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="31">
         <v>2378</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D23" s="29" t="s">
+    <row r="23" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D23" s="33" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -2377,213 +2395,213 @@
       <c r="F23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D24" s="31"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="4:9" ht="18" thickBot="1">
+      <c r="D24" s="34"/>
       <c r="E24" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D25" s="31"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="4:9" ht="18" thickBot="1">
+      <c r="D25" s="34"/>
       <c r="E25" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D26" s="31"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="4:9" ht="18" thickBot="1">
+      <c r="D26" s="34"/>
       <c r="E26" s="17" t="s">
         <v>128</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D27" s="31"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="4:9" ht="18" thickBot="1">
+      <c r="D27" s="34"/>
       <c r="E27" s="17" t="s">
         <v>129</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D28" s="31"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D28" s="34"/>
       <c r="E28" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D29" s="31"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:9" ht="18" thickBot="1">
+      <c r="D29" s="34"/>
       <c r="E29" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D30" s="31"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="4:9" ht="18" thickBot="1">
+      <c r="D30" s="34"/>
       <c r="E30" s="17" t="s">
         <v>133</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D31" s="31"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="4:9" ht="18" thickBot="1">
+      <c r="D31" s="34"/>
       <c r="E31" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D32" s="31"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="4:9" ht="18" thickBot="1">
+      <c r="D32" s="34"/>
       <c r="E32" s="17" t="s">
         <v>135</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D33" s="31"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D33" s="34"/>
       <c r="E33" s="17" t="s">
         <v>136</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D34" s="31"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D34" s="34"/>
       <c r="E34" s="17" t="s">
         <v>138</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D35" s="31"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D35" s="34"/>
       <c r="E35" s="17" t="s">
         <v>139</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D36" s="31"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D36" s="34"/>
       <c r="E36" s="17" t="s">
         <v>141</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-    </row>
-    <row r="37" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D37" s="31"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D37" s="34"/>
       <c r="E37" s="17" t="s">
         <v>142</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D38" s="31"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D38" s="34"/>
       <c r="E38" s="17" t="s">
         <v>144</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-    </row>
-    <row r="39" spans="4:9" ht="99.75">
-      <c r="D39" s="31"/>
-      <c r="E39" s="29" t="s">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="4:9" ht="96.6">
+      <c r="D39" s="34"/>
+      <c r="E39" s="33" t="s">
         <v>145</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="32"/>
-    </row>
-    <row r="40" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="4:9" ht="17.25" thickBot="1">
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="4:9" ht="18" thickBot="1">
       <c r="D41" s="17" t="s">
         <v>122</v>
       </c>
@@ -2593,18 +2611,18 @@
       <c r="F41" s="17">
         <v>27</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="33">
         <v>95.4</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="33">
         <v>824</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="30">
         <v>4897</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D42" s="29" t="s">
+    <row r="42" spans="4:9" ht="18" thickBot="1">
+      <c r="D42" s="33" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="17" t="s">
@@ -2613,297 +2631,297 @@
       <c r="F42" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
-    </row>
-    <row r="43" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D43" s="31"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D43" s="34"/>
       <c r="E43" s="17" t="s">
         <v>150</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-    </row>
-    <row r="44" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D44" s="31"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D44" s="34"/>
       <c r="E44" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-    </row>
-    <row r="45" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D45" s="31"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="4:9" ht="42" thickBot="1">
+      <c r="D45" s="34"/>
       <c r="E45" s="17" t="s">
         <v>153</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
-    </row>
-    <row r="46" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D46" s="31"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="4:9" ht="18" thickBot="1">
+      <c r="D46" s="34"/>
       <c r="E46" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
-    </row>
-    <row r="47" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D47" s="31"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="4:9" ht="18" thickBot="1">
+      <c r="D47" s="34"/>
       <c r="E47" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
-    </row>
-    <row r="48" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D48" s="31"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="4:9" ht="18" thickBot="1">
+      <c r="D48" s="34"/>
       <c r="E48" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
-    </row>
-    <row r="49" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D49" s="31"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D49" s="34"/>
       <c r="E49" s="17" t="s">
         <v>158</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
-    </row>
-    <row r="50" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D50" s="31"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D50" s="34"/>
       <c r="E50" s="17" t="s">
         <v>160</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D51" s="31"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D51" s="34"/>
       <c r="E51" s="17" t="s">
         <v>161</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
-    </row>
-    <row r="52" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D52" s="31"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="4:9" ht="18" thickBot="1">
+      <c r="D52" s="34"/>
       <c r="E52" s="17" t="s">
         <v>162</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="32"/>
-    </row>
-    <row r="53" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D53" s="31"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="4:9" ht="18" thickBot="1">
+      <c r="D53" s="34"/>
       <c r="E53" s="17" t="s">
         <v>163</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="32"/>
-    </row>
-    <row r="54" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D54" s="31"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="4:9" ht="18" thickBot="1">
+      <c r="D54" s="34"/>
       <c r="E54" s="17" t="s">
         <v>164</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="32"/>
-    </row>
-    <row r="55" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D55" s="31"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D55" s="34"/>
       <c r="E55" s="17" t="s">
         <v>165</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="32"/>
-    </row>
-    <row r="56" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D56" s="31"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D56" s="34"/>
       <c r="E56" s="17" t="s">
         <v>167</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="32"/>
-    </row>
-    <row r="57" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D57" s="31"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D57" s="34"/>
       <c r="E57" s="17" t="s">
         <v>168</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-    </row>
-    <row r="58" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D58" s="31"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D58" s="34"/>
       <c r="E58" s="17" t="s">
         <v>170</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="32"/>
-    </row>
-    <row r="59" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D59" s="31"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D59" s="34"/>
       <c r="E59" s="17" t="s">
         <v>171</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="32"/>
-    </row>
-    <row r="60" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D60" s="31"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="4:9" ht="18" thickBot="1">
+      <c r="D60" s="34"/>
       <c r="E60" s="17" t="s">
         <v>172</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="32"/>
-    </row>
-    <row r="61" spans="4:9" ht="57.75" thickBot="1">
-      <c r="D61" s="31"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="4:9" ht="55.8" thickBot="1">
+      <c r="D61" s="34"/>
       <c r="E61" s="17" t="s">
         <v>173</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="32"/>
-    </row>
-    <row r="62" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D62" s="31"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="4:9" ht="18" thickBot="1">
+      <c r="D62" s="34"/>
       <c r="E62" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="32"/>
-    </row>
-    <row r="63" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D63" s="31"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D63" s="34"/>
       <c r="E63" s="17" t="s">
         <v>176</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="32"/>
-    </row>
-    <row r="64" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D64" s="31"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D64" s="34"/>
       <c r="E64" s="17" t="s">
         <v>178</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="32"/>
-    </row>
-    <row r="65" spans="4:9" ht="99.75">
-      <c r="D65" s="31"/>
-      <c r="E65" s="29" t="s">
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="31"/>
+    </row>
+    <row r="65" spans="4:9" ht="96.6">
+      <c r="D65" s="34"/>
+      <c r="E65" s="33" t="s">
         <v>179</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="32"/>
-    </row>
-    <row r="66" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="4:9" ht="42" thickBot="1">
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
       <c r="F66" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" spans="4:9" ht="17.25" thickBot="1">
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" spans="4:9" ht="18" thickBot="1">
       <c r="D67" s="17" t="s">
         <v>122</v>
       </c>
@@ -2913,215 +2931,215 @@
       <c r="F67" s="17">
         <v>53</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G67" s="33">
         <v>176.6</v>
       </c>
-      <c r="H67" s="29">
+      <c r="H67" s="33">
         <v>631</v>
       </c>
-      <c r="I67" s="34">
+      <c r="I67" s="30">
         <v>3510</v>
       </c>
     </row>
-    <row r="68" spans="4:9" ht="85.5">
-      <c r="D68" s="29" t="s">
+    <row r="68" spans="4:9" ht="82.8">
+      <c r="D68" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="33" t="s">
         <v>183</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="32"/>
-    </row>
-    <row r="69" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D69" s="31"/>
-      <c r="E69" s="30"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="4:9" ht="18" thickBot="1">
+      <c r="D69" s="34"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="32"/>
-    </row>
-    <row r="70" spans="4:9" ht="72" thickBot="1">
-      <c r="D70" s="31"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="4:9" ht="69.599999999999994" thickBot="1">
+      <c r="D70" s="34"/>
       <c r="E70" s="17" t="s">
         <v>186</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="32"/>
-    </row>
-    <row r="71" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D71" s="31"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="71" spans="4:9" ht="42" thickBot="1">
+      <c r="D71" s="34"/>
       <c r="E71" s="17" t="s">
         <v>188</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="32"/>
-    </row>
-    <row r="72" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D72" s="31"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="31"/>
+    </row>
+    <row r="72" spans="4:9" ht="42" thickBot="1">
+      <c r="D72" s="34"/>
       <c r="E72" s="17" t="s">
         <v>190</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="32"/>
-    </row>
-    <row r="73" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D73" s="31"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="31"/>
+    </row>
+    <row r="73" spans="4:9" ht="42" thickBot="1">
+      <c r="D73" s="34"/>
       <c r="E73" s="17" t="s">
         <v>192</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="32"/>
-    </row>
-    <row r="74" spans="4:9" ht="86.25" thickBot="1">
-      <c r="D74" s="31"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" spans="4:9" ht="83.4" thickBot="1">
+      <c r="D74" s="34"/>
       <c r="E74" s="17" t="s">
         <v>194</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="32"/>
-    </row>
-    <row r="75" spans="4:9" ht="100.5" thickBot="1">
-      <c r="D75" s="31"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="4:9" ht="97.2" thickBot="1">
+      <c r="D75" s="34"/>
       <c r="E75" s="17" t="s">
         <v>196</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="32"/>
-    </row>
-    <row r="76" spans="4:9" ht="85.5">
-      <c r="D76" s="31"/>
-      <c r="E76" s="29" t="s">
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="31"/>
+    </row>
+    <row r="76" spans="4:9" ht="82.8">
+      <c r="D76" s="34"/>
+      <c r="E76" s="33" t="s">
         <v>198</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="32"/>
-    </row>
-    <row r="77" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D77" s="31"/>
-      <c r="E77" s="30"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="31"/>
+    </row>
+    <row r="77" spans="4:9" ht="42" thickBot="1">
+      <c r="D77" s="34"/>
+      <c r="E77" s="35"/>
       <c r="F77" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="32"/>
-    </row>
-    <row r="78" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D78" s="31"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" spans="4:9" ht="42" thickBot="1">
+      <c r="D78" s="34"/>
       <c r="E78" s="17" t="s">
         <v>201</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="32"/>
-    </row>
-    <row r="79" spans="4:9" ht="85.5">
-      <c r="D79" s="31"/>
-      <c r="E79" s="29" t="s">
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="4:9" ht="82.8">
+      <c r="D79" s="34"/>
+      <c r="E79" s="33" t="s">
         <v>203</v>
       </c>
       <c r="F79" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="32"/>
-    </row>
-    <row r="80" spans="4:9" ht="57.75" thickBot="1">
-      <c r="D80" s="31"/>
-      <c r="E80" s="30"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="31"/>
+    </row>
+    <row r="80" spans="4:9" ht="55.8" thickBot="1">
+      <c r="D80" s="34"/>
+      <c r="E80" s="35"/>
       <c r="F80" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="32"/>
-    </row>
-    <row r="81" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D81" s="31"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="31"/>
+    </row>
+    <row r="81" spans="4:9" ht="42" thickBot="1">
+      <c r="D81" s="34"/>
       <c r="E81" s="17" t="s">
         <v>206</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="32"/>
-    </row>
-    <row r="82" spans="4:9" ht="85.5">
-      <c r="D82" s="31"/>
-      <c r="E82" s="29" t="s">
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="31"/>
+    </row>
+    <row r="82" spans="4:9" ht="82.8">
+      <c r="D82" s="34"/>
+      <c r="E82" s="33" t="s">
         <v>208</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="32"/>
-    </row>
-    <row r="83" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D83" s="31"/>
-      <c r="E83" s="30"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="31"/>
+    </row>
+    <row r="83" spans="4:9" ht="18" thickBot="1">
+      <c r="D83" s="34"/>
+      <c r="E83" s="35"/>
       <c r="F83" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="32"/>
-    </row>
-    <row r="84" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D84" s="30"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="31"/>
+    </row>
+    <row r="84" spans="4:9" ht="42" thickBot="1">
+      <c r="D84" s="35"/>
       <c r="E84" s="17" t="s">
         <v>211</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="33"/>
-    </row>
-    <row r="85" spans="4:9" ht="17.25" thickBot="1">
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="32"/>
+    </row>
+    <row r="85" spans="4:9" ht="18" thickBot="1">
       <c r="D85" s="17" t="s">
         <v>122</v>
       </c>
@@ -3131,18 +3149,18 @@
       <c r="F85" s="17">
         <v>26</v>
       </c>
-      <c r="G85" s="29">
+      <c r="G85" s="33">
         <v>68.7</v>
       </c>
-      <c r="H85" s="29">
+      <c r="H85" s="33">
         <v>367</v>
       </c>
-      <c r="I85" s="34">
+      <c r="I85" s="30">
         <v>1948</v>
       </c>
     </row>
-    <row r="86" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D86" s="29" t="s">
+    <row r="86" spans="4:9" ht="18" thickBot="1">
+      <c r="D86" s="33" t="s">
         <v>213</v>
       </c>
       <c r="E86" s="17" t="s">
@@ -3151,154 +3169,168 @@
       <c r="F86" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="32"/>
-    </row>
-    <row r="87" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D87" s="31"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="31"/>
+    </row>
+    <row r="87" spans="4:9" ht="18" thickBot="1">
+      <c r="D87" s="34"/>
       <c r="E87" s="17" t="s">
         <v>215</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="32"/>
-    </row>
-    <row r="88" spans="4:9" ht="57.75" thickBot="1">
-      <c r="D88" s="31"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="31"/>
+    </row>
+    <row r="88" spans="4:9" ht="55.8" thickBot="1">
+      <c r="D88" s="34"/>
       <c r="E88" s="17" t="s">
         <v>216</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="32"/>
-    </row>
-    <row r="89" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D89" s="31"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="31"/>
+    </row>
+    <row r="89" spans="4:9" ht="18" thickBot="1">
+      <c r="D89" s="34"/>
       <c r="E89" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="32"/>
-    </row>
-    <row r="90" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D90" s="31"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="31"/>
+    </row>
+    <row r="90" spans="4:9" ht="18" thickBot="1">
+      <c r="D90" s="34"/>
       <c r="E90" s="17" t="s">
         <v>219</v>
       </c>
       <c r="F90" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="32"/>
-    </row>
-    <row r="91" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D91" s="31"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="31"/>
+    </row>
+    <row r="91" spans="4:9" ht="18" thickBot="1">
+      <c r="D91" s="34"/>
       <c r="E91" s="17" t="s">
         <v>220</v>
       </c>
       <c r="F91" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="32"/>
-    </row>
-    <row r="92" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D92" s="31"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="31"/>
+    </row>
+    <row r="92" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D92" s="34"/>
       <c r="E92" s="17" t="s">
         <v>221</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="32"/>
-    </row>
-    <row r="93" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D93" s="31"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="31"/>
+    </row>
+    <row r="93" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D93" s="34"/>
       <c r="E93" s="17" t="s">
         <v>223</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="32"/>
-    </row>
-    <row r="94" spans="4:9" ht="85.5">
-      <c r="D94" s="31"/>
-      <c r="E94" s="29" t="s">
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="31"/>
+    </row>
+    <row r="94" spans="4:9" ht="82.8">
+      <c r="D94" s="34"/>
+      <c r="E94" s="33" t="s">
         <v>224</v>
       </c>
       <c r="F94" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="32"/>
-    </row>
-    <row r="95" spans="4:9" ht="29.25" thickBot="1">
-      <c r="D95" s="31"/>
-      <c r="E95" s="30"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="31"/>
+    </row>
+    <row r="95" spans="4:9" ht="28.2" thickBot="1">
+      <c r="D95" s="34"/>
+      <c r="E95" s="35"/>
       <c r="F95" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="32"/>
-    </row>
-    <row r="96" spans="4:9" ht="17.25" thickBot="1">
-      <c r="D96" s="31"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="31"/>
+    </row>
+    <row r="96" spans="4:9" ht="18" thickBot="1">
+      <c r="D96" s="34"/>
       <c r="E96" s="17" t="s">
         <v>227</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="32"/>
-    </row>
-    <row r="97" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D97" s="31"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="31"/>
+    </row>
+    <row r="97" spans="4:9" ht="42" thickBot="1">
+      <c r="D97" s="34"/>
       <c r="E97" s="17" t="s">
         <v>228</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="32"/>
-    </row>
-    <row r="98" spans="4:9" ht="43.5" thickBot="1">
-      <c r="D98" s="30"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="31"/>
+    </row>
+    <row r="98" spans="4:9" ht="42" thickBot="1">
+      <c r="D98" s="35"/>
       <c r="E98" s="17" t="s">
         <v>230</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="33"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G22:G40"/>
+    <mergeCell ref="H22:H40"/>
+    <mergeCell ref="G67:G84"/>
+    <mergeCell ref="H67:H84"/>
+    <mergeCell ref="I22:I40"/>
+    <mergeCell ref="D23:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G41:G66"/>
+    <mergeCell ref="H41:H66"/>
+    <mergeCell ref="I41:I66"/>
+    <mergeCell ref="D42:D66"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="I85:I98"/>
     <mergeCell ref="D86:D98"/>
     <mergeCell ref="E94:E95"/>
@@ -3310,20 +3342,6 @@
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="G85:G98"/>
     <mergeCell ref="H85:H98"/>
-    <mergeCell ref="I22:I40"/>
-    <mergeCell ref="D23:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G41:G66"/>
-    <mergeCell ref="H41:H66"/>
-    <mergeCell ref="I41:I66"/>
-    <mergeCell ref="D42:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G22:G40"/>
-    <mergeCell ref="H22:H40"/>
-    <mergeCell ref="G67:G84"/>
-    <mergeCell ref="H67:H84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3338,11 +3356,11 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="11.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -3549,7 +3567,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="9" spans="3:7">
       <c r="C9" s="2" t="s">
@@ -3624,31 +3642,1062 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="2" max="16384" width="8.796875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="5">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="9.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="7" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="17.25" thickBot="1">
+    <row r="3" spans="3:9" ht="18" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="9">
@@ -3702,7 +4751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="17.25" thickBot="1">
+    <row r="10" spans="3:9" ht="18" thickBot="1">
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
     </row>
@@ -3711,18 +4760,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="17.25" thickBot="1">
+    <row r="13" spans="3:9" ht="18" thickBot="1">
       <c r="G13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="9">
@@ -3764,7 +4813,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="3:19" ht="17.25" thickBot="1">
+    <row r="22" spans="3:19" ht="18" thickBot="1">
       <c r="C22" s="15"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -3805,7 +4854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3813,9 +4862,9 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/프로젝트.xlsx
+++ b/프로젝트.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="tech stack" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="298">
   <si>
     <t>메뉴 id, 메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,6 +1052,34 @@
   </si>
   <si>
     <t>Components manage bean data, study more about it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additional stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make random game order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AJAX link with jsp page </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to add people to choice person who pay for food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice one person to pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make array with number of people and remove one array value each step by step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,7 +1367,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,13 +1385,7 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1364,9 +1395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1711,18 +1739,18 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="3" width="4.19921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="4.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.19921875" customWidth="1"/>
+    <col min="5" max="5" width="58.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1733,7 +1761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.2">
+    <row r="3" spans="1:6" ht="17.25">
       <c r="D3" s="3" t="s">
         <v>233</v>
       </c>
@@ -1929,6 +1957,82 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="D36" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1943,24 +2047,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S18"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="23.3984375" customWidth="1"/>
-    <col min="16" max="16" width="28.19921875" customWidth="1"/>
+    <col min="15" max="15" width="23.375" customWidth="1"/>
+    <col min="16" max="16" width="28.25" customWidth="1"/>
     <col min="17" max="17" width="29" customWidth="1"/>
     <col min="18" max="18" width="27" customWidth="1"/>
-    <col min="19" max="19" width="20.09765625" customWidth="1"/>
+    <col min="19" max="19" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="25.2">
+    <row r="2" spans="1:19" ht="26.25">
       <c r="B2" s="21" t="s">
         <v>238</v>
       </c>
@@ -2005,7 +2109,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" thickBot="1">
+    <row r="5" spans="1:19" ht="17.25" thickBot="1">
       <c r="O5" t="s">
         <v>248</v>
       </c>
@@ -2098,7 +2202,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" thickBot="1">
+    <row r="10" spans="1:19" ht="17.25" thickBot="1">
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="F10" s="26"/>
@@ -2147,13 +2251,13 @@
   <dimension ref="D3:I98"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85:G98"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="3" spans="4:9" ht="18" thickBot="1"/>
-    <row r="4" spans="4:9" ht="55.8" thickBot="1">
+    <row r="3" spans="4:9" ht="17.25" thickBot="1"/>
+    <row r="4" spans="4:9" ht="57.75" thickBot="1">
       <c r="D4" s="19" t="s">
         <v>96</v>
       </c>
@@ -2165,7 +2269,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="4:9" ht="28.2" thickBot="1">
+    <row r="5" spans="4:9" ht="29.25" thickBot="1">
       <c r="D5" s="17" t="s">
         <v>98</v>
       </c>
@@ -2177,7 +2281,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="4:9" ht="42" thickBot="1">
+    <row r="6" spans="4:9" ht="43.5" thickBot="1">
       <c r="D6" s="17" t="s">
         <v>100</v>
       </c>
@@ -2189,7 +2293,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="4:9" ht="42" thickBot="1">
+    <row r="7" spans="4:9" ht="43.5" thickBot="1">
       <c r="D7" s="17" t="s">
         <v>102</v>
       </c>
@@ -2201,7 +2305,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="4:9" ht="28.2" thickBot="1">
+    <row r="8" spans="4:9" ht="29.25" thickBot="1">
       <c r="D8" s="17" t="s">
         <v>104</v>
       </c>
@@ -2213,7 +2317,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="4:9" ht="18" thickBot="1">
+    <row r="9" spans="4:9" ht="17.25" thickBot="1">
       <c r="D9" s="17" t="s">
         <v>106</v>
       </c>
@@ -2225,7 +2329,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="4:9" ht="18" thickBot="1">
+    <row r="10" spans="4:9" ht="17.25" thickBot="1">
       <c r="D10" s="17" t="s">
         <v>107</v>
       </c>
@@ -2237,7 +2341,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="4:9" ht="18" thickBot="1">
+    <row r="11" spans="4:9" ht="17.25" thickBot="1">
       <c r="D11" s="17" t="s">
         <v>108</v>
       </c>
@@ -2249,7 +2353,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="4:9" ht="28.2" thickBot="1">
+    <row r="12" spans="4:9" ht="29.25" thickBot="1">
       <c r="D12" s="17" t="s">
         <v>109</v>
       </c>
@@ -2261,7 +2365,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="4:9" ht="28.2" thickBot="1">
+    <row r="13" spans="4:9" ht="29.25" thickBot="1">
       <c r="D13" s="17" t="s">
         <v>111</v>
       </c>
@@ -2273,7 +2377,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="4:9" ht="18" thickBot="1">
+    <row r="14" spans="4:9" ht="17.25" thickBot="1">
       <c r="D14" s="17" t="s">
         <v>112</v>
       </c>
@@ -2285,7 +2389,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="4:9" ht="18" thickBot="1">
+    <row r="15" spans="4:9" ht="17.25" thickBot="1">
       <c r="D15" s="17" t="s">
         <v>113</v>
       </c>
@@ -2297,7 +2401,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="4:9" ht="18" thickBot="1">
+    <row r="16" spans="4:9" ht="17.25" thickBot="1">
       <c r="D16" s="17" t="s">
         <v>114</v>
       </c>
@@ -2309,7 +2413,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="4:9" ht="18" thickBot="1">
+    <row r="17" spans="4:9" ht="17.25" thickBot="1">
       <c r="D17" s="17" t="s">
         <v>115</v>
       </c>
@@ -2321,8 +2425,8 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="4:9" ht="110.4">
-      <c r="D18" s="33" t="s">
+    <row r="18" spans="4:9" ht="114">
+      <c r="D18" s="31" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="18" t="s">
@@ -2333,8 +2437,8 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="4:9" ht="97.2" thickBot="1">
-      <c r="D19" s="35"/>
+    <row r="19" spans="4:9" ht="100.5" thickBot="1">
+      <c r="D19" s="32"/>
       <c r="E19" s="17" t="s">
         <v>118</v>
       </c>
@@ -2343,8 +2447,8 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="4:9" ht="96.6">
-      <c r="D20" s="33" t="s">
+    <row r="20" spans="4:9" ht="99.75">
+      <c r="D20" s="31" t="s">
         <v>119</v>
       </c>
       <c r="E20" s="18" t="s">
@@ -2355,8 +2459,8 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="4:9" ht="42" thickBot="1">
-      <c r="D21" s="35"/>
+    <row r="21" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D21" s="32"/>
       <c r="E21" s="17" t="s">
         <v>121</v>
       </c>
@@ -2365,7 +2469,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="4:9" ht="18" thickBot="1">
+    <row r="22" spans="4:9" ht="17.25" thickBot="1">
       <c r="D22" s="17" t="s">
         <v>122</v>
       </c>
@@ -2375,18 +2479,18 @@
       <c r="F22" s="17">
         <v>26</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="33">
         <v>62.2</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="33">
         <v>417</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="34">
         <v>2378</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D23" s="33" t="s">
+    <row r="23" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D23" s="31" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -2395,213 +2499,213 @@
       <c r="F23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="4:9" ht="18" thickBot="1">
-      <c r="D24" s="34"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D24" s="33"/>
       <c r="E24" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="4:9" ht="18" thickBot="1">
-      <c r="D25" s="34"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D25" s="33"/>
       <c r="E25" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="4:9" ht="18" thickBot="1">
-      <c r="D26" s="34"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D26" s="33"/>
       <c r="E26" s="17" t="s">
         <v>128</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="4:9" ht="18" thickBot="1">
-      <c r="D27" s="34"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D27" s="33"/>
       <c r="E27" s="17" t="s">
         <v>129</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D28" s="34"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D28" s="33"/>
       <c r="E28" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:9" ht="18" thickBot="1">
-      <c r="D29" s="34"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D29" s="33"/>
       <c r="E29" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="4:9" ht="18" thickBot="1">
-      <c r="D30" s="34"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D30" s="33"/>
       <c r="E30" s="17" t="s">
         <v>133</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="4:9" ht="18" thickBot="1">
-      <c r="D31" s="34"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D31" s="33"/>
       <c r="E31" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="4:9" ht="18" thickBot="1">
-      <c r="D32" s="34"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D32" s="33"/>
       <c r="E32" s="17" t="s">
         <v>135</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D33" s="34"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D33" s="33"/>
       <c r="E33" s="17" t="s">
         <v>136</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D34" s="34"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D34" s="33"/>
       <c r="E34" s="17" t="s">
         <v>138</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D35" s="34"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D35" s="33"/>
       <c r="E35" s="17" t="s">
         <v>139</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D36" s="34"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D36" s="33"/>
       <c r="E36" s="17" t="s">
         <v>141</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D37" s="34"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D37" s="33"/>
       <c r="E37" s="17" t="s">
         <v>142</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="31"/>
-    </row>
-    <row r="38" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D38" s="34"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D38" s="33"/>
       <c r="E38" s="17" t="s">
         <v>144</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="31"/>
-    </row>
-    <row r="39" spans="4:9" ht="96.6">
-      <c r="D39" s="34"/>
-      <c r="E39" s="33" t="s">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="4:9" ht="99.75">
+      <c r="D39" s="33"/>
+      <c r="E39" s="31" t="s">
         <v>145</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="32"/>
-    </row>
-    <row r="41" spans="4:9" ht="18" thickBot="1">
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="4:9" ht="17.25" thickBot="1">
       <c r="D41" s="17" t="s">
         <v>122</v>
       </c>
@@ -2611,18 +2715,18 @@
       <c r="F41" s="17">
         <v>27</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="31">
         <v>95.4</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="31">
         <v>824</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="36">
         <v>4897</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="18" thickBot="1">
-      <c r="D42" s="33" t="s">
+    <row r="42" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D42" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="17" t="s">
@@ -2631,297 +2735,297 @@
       <c r="F42" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="31"/>
-    </row>
-    <row r="43" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D43" s="34"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D43" s="33"/>
       <c r="E43" s="17" t="s">
         <v>150</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D44" s="34"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D44" s="33"/>
       <c r="E44" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="31"/>
-    </row>
-    <row r="45" spans="4:9" ht="42" thickBot="1">
-      <c r="D45" s="34"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D45" s="33"/>
       <c r="E45" s="17" t="s">
         <v>153</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="31"/>
-    </row>
-    <row r="46" spans="4:9" ht="18" thickBot="1">
-      <c r="D46" s="34"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D46" s="33"/>
       <c r="E46" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="31"/>
-    </row>
-    <row r="47" spans="4:9" ht="18" thickBot="1">
-      <c r="D47" s="34"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D47" s="33"/>
       <c r="E47" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="31"/>
-    </row>
-    <row r="48" spans="4:9" ht="18" thickBot="1">
-      <c r="D48" s="34"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D48" s="33"/>
       <c r="E48" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="31"/>
-    </row>
-    <row r="49" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D49" s="34"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D49" s="33"/>
       <c r="E49" s="17" t="s">
         <v>158</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="31"/>
-    </row>
-    <row r="50" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D50" s="34"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D50" s="33"/>
       <c r="E50" s="17" t="s">
         <v>160</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="31"/>
-    </row>
-    <row r="51" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D51" s="34"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D51" s="33"/>
       <c r="E51" s="17" t="s">
         <v>161</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="31"/>
-    </row>
-    <row r="52" spans="4:9" ht="18" thickBot="1">
-      <c r="D52" s="34"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D52" s="33"/>
       <c r="E52" s="17" t="s">
         <v>162</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="31"/>
-    </row>
-    <row r="53" spans="4:9" ht="18" thickBot="1">
-      <c r="D53" s="34"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D53" s="33"/>
       <c r="E53" s="17" t="s">
         <v>163</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="31"/>
-    </row>
-    <row r="54" spans="4:9" ht="18" thickBot="1">
-      <c r="D54" s="34"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="34"/>
+    </row>
+    <row r="54" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D54" s="33"/>
       <c r="E54" s="17" t="s">
         <v>164</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="31"/>
-    </row>
-    <row r="55" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D55" s="34"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D55" s="33"/>
       <c r="E55" s="17" t="s">
         <v>165</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="31"/>
-    </row>
-    <row r="56" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D56" s="34"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D56" s="33"/>
       <c r="E56" s="17" t="s">
         <v>167</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D57" s="34"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D57" s="33"/>
       <c r="E57" s="17" t="s">
         <v>168</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D58" s="34"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D58" s="33"/>
       <c r="E58" s="17" t="s">
         <v>170</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D59" s="34"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D59" s="33"/>
       <c r="E59" s="17" t="s">
         <v>171</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="31"/>
-    </row>
-    <row r="60" spans="4:9" ht="18" thickBot="1">
-      <c r="D60" s="34"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="34"/>
+    </row>
+    <row r="60" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D60" s="33"/>
       <c r="E60" s="17" t="s">
         <v>172</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" spans="4:9" ht="55.8" thickBot="1">
-      <c r="D61" s="34"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="4:9" ht="57.75" thickBot="1">
+      <c r="D61" s="33"/>
       <c r="E61" s="17" t="s">
         <v>173</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" spans="4:9" ht="18" thickBot="1">
-      <c r="D62" s="34"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D62" s="33"/>
       <c r="E62" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="31"/>
-    </row>
-    <row r="63" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D63" s="34"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D63" s="33"/>
       <c r="E63" s="17" t="s">
         <v>176</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="31"/>
-    </row>
-    <row r="64" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D64" s="34"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D64" s="33"/>
       <c r="E64" s="17" t="s">
         <v>178</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="31"/>
-    </row>
-    <row r="65" spans="4:9" ht="96.6">
-      <c r="D65" s="34"/>
-      <c r="E65" s="33" t="s">
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="4:9" ht="99.75">
+      <c r="D65" s="33"/>
+      <c r="E65" s="31" t="s">
         <v>179</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="31"/>
-    </row>
-    <row r="66" spans="4:9" ht="42" thickBot="1">
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="32"/>
-    </row>
-    <row r="67" spans="4:9" ht="18" thickBot="1">
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="35"/>
+    </row>
+    <row r="67" spans="4:9" ht="17.25" thickBot="1">
       <c r="D67" s="17" t="s">
         <v>122</v>
       </c>
@@ -2931,215 +3035,215 @@
       <c r="F67" s="17">
         <v>53</v>
       </c>
-      <c r="G67" s="33">
+      <c r="G67" s="31">
         <v>176.6</v>
       </c>
-      <c r="H67" s="33">
+      <c r="H67" s="31">
         <v>631</v>
       </c>
-      <c r="I67" s="30">
+      <c r="I67" s="36">
         <v>3510</v>
       </c>
     </row>
-    <row r="68" spans="4:9" ht="82.8">
-      <c r="D68" s="33" t="s">
+    <row r="68" spans="4:9" ht="85.5">
+      <c r="D68" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="31" t="s">
         <v>183</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="31"/>
-    </row>
-    <row r="69" spans="4:9" ht="18" thickBot="1">
-      <c r="D69" s="34"/>
-      <c r="E69" s="35"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D69" s="33"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="31"/>
-    </row>
-    <row r="70" spans="4:9" ht="69.599999999999994" thickBot="1">
-      <c r="D70" s="34"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="4:9" ht="72" thickBot="1">
+      <c r="D70" s="33"/>
       <c r="E70" s="17" t="s">
         <v>186</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="31"/>
-    </row>
-    <row r="71" spans="4:9" ht="42" thickBot="1">
-      <c r="D71" s="34"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D71" s="33"/>
       <c r="E71" s="17" t="s">
         <v>188</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="31"/>
-    </row>
-    <row r="72" spans="4:9" ht="42" thickBot="1">
-      <c r="D72" s="34"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D72" s="33"/>
       <c r="E72" s="17" t="s">
         <v>190</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="31"/>
-    </row>
-    <row r="73" spans="4:9" ht="42" thickBot="1">
-      <c r="D73" s="34"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="34"/>
+    </row>
+    <row r="73" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D73" s="33"/>
       <c r="E73" s="17" t="s">
         <v>192</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="31"/>
-    </row>
-    <row r="74" spans="4:9" ht="83.4" thickBot="1">
-      <c r="D74" s="34"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="34"/>
+    </row>
+    <row r="74" spans="4:9" ht="86.25" thickBot="1">
+      <c r="D74" s="33"/>
       <c r="E74" s="17" t="s">
         <v>194</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="31"/>
-    </row>
-    <row r="75" spans="4:9" ht="97.2" thickBot="1">
-      <c r="D75" s="34"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="34"/>
+    </row>
+    <row r="75" spans="4:9" ht="100.5" thickBot="1">
+      <c r="D75" s="33"/>
       <c r="E75" s="17" t="s">
         <v>196</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="31"/>
-    </row>
-    <row r="76" spans="4:9" ht="82.8">
-      <c r="D76" s="34"/>
-      <c r="E76" s="33" t="s">
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="4:9" ht="85.5">
+      <c r="D76" s="33"/>
+      <c r="E76" s="31" t="s">
         <v>198</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="31"/>
-    </row>
-    <row r="77" spans="4:9" ht="42" thickBot="1">
-      <c r="D77" s="34"/>
-      <c r="E77" s="35"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D77" s="33"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="31"/>
-    </row>
-    <row r="78" spans="4:9" ht="42" thickBot="1">
-      <c r="D78" s="34"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="34"/>
+    </row>
+    <row r="78" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D78" s="33"/>
       <c r="E78" s="17" t="s">
         <v>201</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="31"/>
-    </row>
-    <row r="79" spans="4:9" ht="82.8">
-      <c r="D79" s="34"/>
-      <c r="E79" s="33" t="s">
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="34"/>
+    </row>
+    <row r="79" spans="4:9" ht="85.5">
+      <c r="D79" s="33"/>
+      <c r="E79" s="31" t="s">
         <v>203</v>
       </c>
       <c r="F79" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="31"/>
-    </row>
-    <row r="80" spans="4:9" ht="55.8" thickBot="1">
-      <c r="D80" s="34"/>
-      <c r="E80" s="35"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="34"/>
+    </row>
+    <row r="80" spans="4:9" ht="57.75" thickBot="1">
+      <c r="D80" s="33"/>
+      <c r="E80" s="32"/>
       <c r="F80" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="31"/>
-    </row>
-    <row r="81" spans="4:9" ht="42" thickBot="1">
-      <c r="D81" s="34"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="34"/>
+    </row>
+    <row r="81" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D81" s="33"/>
       <c r="E81" s="17" t="s">
         <v>206</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="31"/>
-    </row>
-    <row r="82" spans="4:9" ht="82.8">
-      <c r="D82" s="34"/>
-      <c r="E82" s="33" t="s">
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="34"/>
+    </row>
+    <row r="82" spans="4:9" ht="85.5">
+      <c r="D82" s="33"/>
+      <c r="E82" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="31"/>
-    </row>
-    <row r="83" spans="4:9" ht="18" thickBot="1">
-      <c r="D83" s="34"/>
-      <c r="E83" s="35"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="34"/>
+    </row>
+    <row r="83" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D83" s="33"/>
+      <c r="E83" s="32"/>
       <c r="F83" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="31"/>
-    </row>
-    <row r="84" spans="4:9" ht="42" thickBot="1">
-      <c r="D84" s="35"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="34"/>
+    </row>
+    <row r="84" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D84" s="32"/>
       <c r="E84" s="17" t="s">
         <v>211</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="32"/>
-    </row>
-    <row r="85" spans="4:9" ht="18" thickBot="1">
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="4:9" ht="17.25" thickBot="1">
       <c r="D85" s="17" t="s">
         <v>122</v>
       </c>
@@ -3149,18 +3253,18 @@
       <c r="F85" s="17">
         <v>26</v>
       </c>
-      <c r="G85" s="33">
+      <c r="G85" s="31">
         <v>68.7</v>
       </c>
-      <c r="H85" s="33">
+      <c r="H85" s="31">
         <v>367</v>
       </c>
-      <c r="I85" s="30">
+      <c r="I85" s="36">
         <v>1948</v>
       </c>
     </row>
-    <row r="86" spans="4:9" ht="18" thickBot="1">
-      <c r="D86" s="33" t="s">
+    <row r="86" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D86" s="31" t="s">
         <v>213</v>
       </c>
       <c r="E86" s="17" t="s">
@@ -3169,168 +3273,154 @@
       <c r="F86" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="31"/>
-    </row>
-    <row r="87" spans="4:9" ht="18" thickBot="1">
-      <c r="D87" s="34"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="34"/>
+    </row>
+    <row r="87" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D87" s="33"/>
       <c r="E87" s="17" t="s">
         <v>215</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="31"/>
-    </row>
-    <row r="88" spans="4:9" ht="55.8" thickBot="1">
-      <c r="D88" s="34"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="34"/>
+    </row>
+    <row r="88" spans="4:9" ht="57.75" thickBot="1">
+      <c r="D88" s="33"/>
       <c r="E88" s="17" t="s">
         <v>216</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="31"/>
-    </row>
-    <row r="89" spans="4:9" ht="18" thickBot="1">
-      <c r="D89" s="34"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="34"/>
+    </row>
+    <row r="89" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D89" s="33"/>
       <c r="E89" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="31"/>
-    </row>
-    <row r="90" spans="4:9" ht="18" thickBot="1">
-      <c r="D90" s="34"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="34"/>
+    </row>
+    <row r="90" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D90" s="33"/>
       <c r="E90" s="17" t="s">
         <v>219</v>
       </c>
       <c r="F90" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="31"/>
-    </row>
-    <row r="91" spans="4:9" ht="18" thickBot="1">
-      <c r="D91" s="34"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="34"/>
+    </row>
+    <row r="91" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D91" s="33"/>
       <c r="E91" s="17" t="s">
         <v>220</v>
       </c>
       <c r="F91" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="31"/>
-    </row>
-    <row r="92" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D92" s="34"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="34"/>
+    </row>
+    <row r="92" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D92" s="33"/>
       <c r="E92" s="17" t="s">
         <v>221</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="31"/>
-    </row>
-    <row r="93" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D93" s="34"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="34"/>
+    </row>
+    <row r="93" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D93" s="33"/>
       <c r="E93" s="17" t="s">
         <v>223</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="31"/>
-    </row>
-    <row r="94" spans="4:9" ht="82.8">
-      <c r="D94" s="34"/>
-      <c r="E94" s="33" t="s">
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="34"/>
+    </row>
+    <row r="94" spans="4:9" ht="85.5">
+      <c r="D94" s="33"/>
+      <c r="E94" s="31" t="s">
         <v>224</v>
       </c>
       <c r="F94" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="31"/>
-    </row>
-    <row r="95" spans="4:9" ht="28.2" thickBot="1">
-      <c r="D95" s="34"/>
-      <c r="E95" s="35"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="34"/>
+    </row>
+    <row r="95" spans="4:9" ht="29.25" thickBot="1">
+      <c r="D95" s="33"/>
+      <c r="E95" s="32"/>
       <c r="F95" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="31"/>
-    </row>
-    <row r="96" spans="4:9" ht="18" thickBot="1">
-      <c r="D96" s="34"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="34"/>
+    </row>
+    <row r="96" spans="4:9" ht="17.25" thickBot="1">
+      <c r="D96" s="33"/>
       <c r="E96" s="17" t="s">
         <v>227</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="31"/>
-    </row>
-    <row r="97" spans="4:9" ht="42" thickBot="1">
-      <c r="D97" s="34"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D97" s="33"/>
       <c r="E97" s="17" t="s">
         <v>228</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="31"/>
-    </row>
-    <row r="98" spans="4:9" ht="42" thickBot="1">
-      <c r="D98" s="35"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="4:9" ht="43.5" thickBot="1">
+      <c r="D98" s="32"/>
       <c r="E98" s="17" t="s">
         <v>230</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G22:G40"/>
-    <mergeCell ref="H22:H40"/>
-    <mergeCell ref="G67:G84"/>
-    <mergeCell ref="H67:H84"/>
-    <mergeCell ref="I22:I40"/>
-    <mergeCell ref="D23:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G41:G66"/>
-    <mergeCell ref="H41:H66"/>
-    <mergeCell ref="I41:I66"/>
-    <mergeCell ref="D42:D66"/>
-    <mergeCell ref="E65:E66"/>
     <mergeCell ref="I85:I98"/>
     <mergeCell ref="D86:D98"/>
     <mergeCell ref="E94:E95"/>
@@ -3342,6 +3432,20 @@
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="G85:G98"/>
     <mergeCell ref="H85:H98"/>
+    <mergeCell ref="I22:I40"/>
+    <mergeCell ref="D23:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G41:G66"/>
+    <mergeCell ref="H41:H66"/>
+    <mergeCell ref="I41:I66"/>
+    <mergeCell ref="D42:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G22:G40"/>
+    <mergeCell ref="H22:H40"/>
+    <mergeCell ref="G67:G84"/>
+    <mergeCell ref="H67:H84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3356,11 +3460,11 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="11.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -3567,7 +3671,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="9" spans="3:7">
       <c r="C9" s="2" t="s">
@@ -3644,14 +3748,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="5"/>
-    <col min="2" max="16384" width="8.796875" style="7"/>
+    <col min="1" max="1" width="8.75" style="5"/>
+    <col min="2" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -3663,7 +3767,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -4679,25 +4783,25 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="9.69921875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="7" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="18" thickBot="1">
+    <row r="3" spans="3:9" ht="17.25" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="9">
@@ -4751,7 +4855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="18" thickBot="1">
+    <row r="10" spans="3:9" ht="17.25" thickBot="1">
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
     </row>
@@ -4760,18 +4864,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="18" thickBot="1">
+    <row r="13" spans="3:9" ht="17.25" thickBot="1">
       <c r="G13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="9">
@@ -4813,7 +4917,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="3:19" ht="18" thickBot="1">
+    <row r="22" spans="3:19" ht="17.25" thickBot="1">
       <c r="C22" s="15"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -4862,9 +4966,9 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="24.09765625" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
